--- a/data/hotels_by_city/Houston/Houston_shard_141.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_141.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="686">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d98999-Reviews-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-Houston-I-10-WestEnergy-Corridor.h25440.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1938 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r578332851-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>98999</t>
+  </si>
+  <si>
+    <t>578332851</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Pleasent dreams</t>
+  </si>
+  <si>
+    <t>Nicely done with every thing you need. Bistro ,bar and special coffees.Just what is needed for the end of the day. Rooms beautiful and clean. Free breakfast in the morning , what more can you ask for.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Nicely done with every thing you need. Bistro ,bar and special coffees.Just what is needed for the end of the day. Rooms beautiful and clean. Free breakfast in the morning , what more can you ask for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r577670242-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577670242</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>The Staff make this special</t>
+  </si>
+  <si>
+    <t>The Hotel is straight off the I-10 freeway which is a road that never sleeps but it does give you immediate access to get moving. The hotel is clean, tidy and has a small shop for a snack &amp; refreshment, the breakfasts are yummie so nothing to complain about.......the staff are just great, they engage with you to ensure you feel welcome in such a busy city.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2018</t>
+  </si>
+  <si>
+    <t>The Hotel is straight off the I-10 freeway which is a road that never sleeps but it does give you immediate access to get moving. The hotel is clean, tidy and has a small shop for a snack &amp; refreshment, the breakfasts are yummie so nothing to complain about.......the staff are just great, they engage with you to ensure you feel welcome in such a busy city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r574372161-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574372161</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Surprisingly good!</t>
+  </si>
+  <si>
+    <t>I thought this was a great hotel - Very clean, rooms were large and the bed was very comfortable.  We were late checking in due to a delayed flight but the lady who took care of us was fast and efficient with such a wonderful smile.  Always nice when you're tired and just want to get in a bed.  I would definitely stay here again without hesitation.  It is right off the highway and very easy to find.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded April 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2018</t>
+  </si>
+  <si>
+    <t>I thought this was a great hotel - Very clean, rooms were large and the bed was very comfortable.  We were late checking in due to a delayed flight but the lady who took care of us was fast and efficient with such a wonderful smile.  Always nice when you're tired and just want to get in a bed.  I would definitely stay here again without hesitation.  It is right off the highway and very easy to find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r555259968-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555259968</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Amazing and Helpful service</t>
+  </si>
+  <si>
+    <t>Phoebe at check in desk was super helpful in finding us the an amazing room and getting us settled in. Every time she saw us she made sure to asking if everything was good, need less to say that our visit was the very best! MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Melinda W, Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Phoebe at check in desk was super helpful in finding us the an amazing room and getting us settled in. Every time she saw us she made sure to asking if everything was good, need less to say that our visit was the very best! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r550533345-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550533345</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>The room on the end by the highway</t>
+  </si>
+  <si>
+    <t>Stayed here on Christmas night when there were not a lot of guests, and thus lots of empty rooms, and yet I was put in a room that required maneuvering the odd layout of the hotel to get to the room at the end of the hallway, closest to the noisy highway. Add to this the fact that I booked a room that said 'courtyard view.' Add to this the fact that, as a Marriott Platinum Elite customer I am supposed to receive both a market item and bonus points--I was not offered a market item.  I would likely not select this location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here on Christmas night when there were not a lot of guests, and thus lots of empty rooms, and yet I was put in a room that required maneuvering the odd layout of the hotel to get to the room at the end of the hallway, closest to the noisy highway. Add to this the fact that I booked a room that said 'courtyard view.' Add to this the fact that, as a Marriott Platinum Elite customer I am supposed to receive both a market item and bonus points--I was not offered a market item.  I would likely not select this location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r546470894-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546470894</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Perfect stay</t>
+  </si>
+  <si>
+    <t>Stayed with my wife and kid for 6 nights while visiting family in Houston Memorial area. Had a room on ground/first floor opening up to the courtyard. The room was  spacious with comfortable beds and nice big bathroom. Loved how one can exit directly to the pool and courtyard which had great seating and an outdoor fireplace. The staff was very friendly and always helpful. Room service staff was great and even found and kept my wallet which i thought i had lost on checkout. The only downside was they didn’t had buffet breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Stayed with my wife and kid for 6 nights while visiting family in Houston Memorial area. Had a room on ground/first floor opening up to the courtyard. The room was  spacious with comfortable beds and nice big bathroom. Loved how one can exit directly to the pool and courtyard which had great seating and an outdoor fireplace. The staff was very friendly and always helpful. Room service staff was great and even found and kept my wallet which i thought i had lost on checkout. The only downside was they didn’t had buffet breakfast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r539073633-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539073633</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Very well located, parking closed to the rooms</t>
+  </si>
+  <si>
+    <t>The hotel is very well located closed to the main Oil Companies, Restaurants, I-10, Memorial, etc. I like the parking around the hotel what makes it very closed to the rooms, making easy embark and disembark with luggage. What I don't like much but it is ok, just a different way of having breakfast is not having the buffet for self service but you have to order it. Anyway, food is great and the environment is also very cool.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded November 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is very well located closed to the main Oil Companies, Restaurants, I-10, Memorial, etc. I like the parking around the hotel what makes it very closed to the rooms, making easy embark and disembark with luggage. What I don't like much but it is ok, just a different way of having breakfast is not having the buffet for self service but you have to order it. Anyway, food is great and the environment is also very cool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r538327223-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538327223</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>The Remodel Wasn't Enough</t>
+  </si>
+  <si>
+    <t>This hotel is very old.  I don't know when Marriott brand bought it and changed it into a Courtyard.  I use Courtyards for overnight stays frequently and they all are a great place to rest your head, had a quick cocktail in the evening and grab a Starbucks on the way out.  This specific Courtyard does not meet the standards of other Courtyards.  It does not compare.  Very old, musty smelling, bathrooms very small.  The parking leaves a lot to be desired as well.  Didn't feel comfortable walking from the side of the hotel after dark.  I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded November 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is very old.  I don't know when Marriott brand bought it and changed it into a Courtyard.  I use Courtyards for overnight stays frequently and they all are a great place to rest your head, had a quick cocktail in the evening and grab a Starbucks on the way out.  This specific Courtyard does not meet the standards of other Courtyards.  It does not compare.  Very old, musty smelling, bathrooms very small.  The parking leaves a lot to be desired as well.  Didn't feel comfortable walking from the side of the hotel after dark.  I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r535473291-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535473291</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Very good stay</t>
+  </si>
+  <si>
+    <t>I was there for 4 days and 3 nights. Clean hotel. Everyone of the staff was very nice and helpful, asking if there was anything you needed. Rooms were clean, beds were very comfortable, I pillow was soft, the other firm (for your preference).If you are hungry, you do not have to go out. The Bistro has excellent food, we came in around 9 PM, ordered a burger and quesadilla, both were very good.Congratulations to all the staff, very professional, especially Phoebe.Would recommend staying with them if you need to be in the Energy Corridor.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>I was there for 4 days and 3 nights. Clean hotel. Everyone of the staff was very nice and helpful, asking if there was anything you needed. Rooms were clean, beds were very comfortable, I pillow was soft, the other firm (for your preference).If you are hungry, you do not have to go out. The Bistro has excellent food, we came in around 9 PM, ordered a burger and quesadilla, both were very good.Congratulations to all the staff, very professional, especially Phoebe.Would recommend staying with them if you need to be in the Energy Corridor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r520900293-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520900293</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Fantastic doing Hurricane Harvey</t>
+  </si>
+  <si>
+    <t>The staff at the Courtyard could not have been more professional, helpful, and sympathetic  to the needs of its guest doing and after hurricane Harvey. The asst manager, Melinda and the front desk staff, especially, Evelyn, were exceptional. they stayed at the hotel continuously until they too were forced to evacuate, tending to the needs of their guest. As a Colonel in the Army, I can attest to the excellent performance of the Courtyard staff under these catastrophic conditions. I will never forget their kindness and will do my best to pay forward their hospitality!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded September 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2017</t>
+  </si>
+  <si>
+    <t>The staff at the Courtyard could not have been more professional, helpful, and sympathetic  to the needs of its guest doing and after hurricane Harvey. The asst manager, Melinda and the front desk staff, especially, Evelyn, were exceptional. they stayed at the hotel continuously until they too were forced to evacuate, tending to the needs of their guest. As a Colonel in the Army, I can attest to the excellent performance of the Courtyard staff under these catastrophic conditions. I will never forget their kindness and will do my best to pay forward their hospitality!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r504352465-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504352465</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Slept Here for Six Hours</t>
+  </si>
+  <si>
+    <t>I checked into this Courtyard around 2:00 AM, and checked out around 8:00 AM for a total of six hours(?). I was exhausted when I arrived, did not haggle over cost, and went right to bed. The room was clean, the room was quiet, the bathroom was clean, and there was a coffee pot in the room. That was all I needed, and this place met all my needs. For those who are breakfast-needy, there is a for-pay café downstairs in the main lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>I checked into this Courtyard around 2:00 AM, and checked out around 8:00 AM for a total of six hours(?). I was exhausted when I arrived, did not haggle over cost, and went right to bed. The room was clean, the room was quiet, the bathroom was clean, and there was a coffee pot in the room. That was all I needed, and this place met all my needs. For those who are breakfast-needy, there is a for-pay café downstairs in the main lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r490091948-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490091948</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>What a blessing!</t>
+  </si>
+  <si>
+    <t>Stayed here as I had both new product training and a funeral to go to the next day.  The front desk person (Blessing) was absolutely fantastic and accommodating..I was one of those (check in for business, check back out, then use personal card, etc) people... Ha!She completely understood what I was doing, made it seamless.The hotel is older but well remodeled.The staff was absolutely one of the most friendly hotel teams I've encountered..Great place to stay, will defiantly come here next time in Houston!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here as I had both new product training and a funeral to go to the next day.  The front desk person (Blessing) was absolutely fantastic and accommodating..I was one of those (check in for business, check back out, then use personal card, etc) people... Ha!She completely understood what I was doing, made it seamless.The hotel is older but well remodeled.The staff was absolutely one of the most friendly hotel teams I've encountered..Great place to stay, will defiantly come here next time in Houston!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r477516632-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477516632</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>clean and very friendly people</t>
+  </si>
+  <si>
+    <t>Stayed here 3 days for a business trip.   Very clean in room and common areas. All staff are very friendly and joking around, always at your service.  I needed to have something shipped home, which Blessing at front desk did with a smile and no charge!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here 3 days for a business trip.   Very clean in room and common areas. All staff are very friendly and joking around, always at your service.  I needed to have something shipped home, which Blessing at front desk did with a smile and no charge!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r474774839-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474774839</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business </t>
+  </si>
+  <si>
+    <t>Blessing was great at check-in. I travel regularly for work and it was nice to see someone at check-in be helpful, pleasant, and courteous. When my travels bring me back to Houston, I will definitely stay here at again. Lately due to my positive interaction with Blessing. Thanks! MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Blessing was great at check-in. I travel regularly for work and it was nice to see someone at check-in be helpful, pleasant, and courteous. When my travels bring me back to Houston, I will definitely stay here at again. Lately due to my positive interaction with Blessing. Thanks! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r471951137-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471951137</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Decent place for reasonable rate</t>
+  </si>
+  <si>
+    <t>Ok location if youre on the west side. Not much to do within walking distance though. Decent rooms and small pool. Resteraunt is ok but nothing great. You'll have to cab or drive anywhere to do things.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Ok location if youre on the west side. Not much to do within walking distance though. Decent rooms and small pool. Resteraunt is ok but nothing great. You'll have to cab or drive anywhere to do things.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r464856957-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464856957</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Great business hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for a weekExtremely courteous staff. All basic facilities available in the room. The room offers a coffee maker, heating facility, tv and options to charge mobile thru usb. In room dining is not available. The hotel restaurant is good. Offers decent selection of food. Would love to stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded March 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for a weekExtremely courteous staff. All basic facilities available in the room. The room offers a coffee maker, heating facility, tv and options to charge mobile thru usb. In room dining is not available. The hotel restaurant is good. Offers decent selection of food. Would love to stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r461773560-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461773560</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Great Courtyard</t>
+  </si>
+  <si>
+    <t>Friendly staff and a cozy peaceful room is what we expect right?  If you need something, just ask... if you're hungry, everything is conveniently Ala Carte.  My vehicle rear drivers-side window in my rent a car was smashed earlier somewhere else - the staff manager let me park this car right in front overnight (so the rain wouldn't get into the car) and I thought that was pretty cool.  I got a great rate for the week and would stay here again under the same circumstances.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Friendly staff and a cozy peaceful room is what we expect right?  If you need something, just ask... if you're hungry, everything is conveniently Ala Carte.  My vehicle rear drivers-side window in my rent a car was smashed earlier somewhere else - the staff manager let me park this car right in front overnight (so the rain wouldn't get into the car) and I thought that was pretty cool.  I got a great rate for the week and would stay here again under the same circumstances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r459410234-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459410234</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Lovely Stay and Staff is Excellent</t>
+  </si>
+  <si>
+    <t>This has been my fourth stay in this Courtyard. I keep on coming back because I'm a Marriott Platinum member and get points, because the rooms are newly renovated, convenient and safe location, and friendly staff. This time though I must say this hotel has went above and beyond to accomodate my request. I'm in town to celebrate my boyfriend's birthday and needed to get a cake and some balloons as a surprise. The sales manager (I'm sorry I wish I could remember her name) went out of her way and personally arranged this. I am very grateful to her. There will definitely be a return visit as this is now my go-to hotel when I'm in HoustonMoreShow less</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2017</t>
+  </si>
+  <si>
+    <t>This has been my fourth stay in this Courtyard. I keep on coming back because I'm a Marriott Platinum member and get points, because the rooms are newly renovated, convenient and safe location, and friendly staff. This time though I must say this hotel has went above and beyond to accomodate my request. I'm in town to celebrate my boyfriend's birthday and needed to get a cake and some balloons as a surprise. The sales manager (I'm sorry I wish I could remember her name) went out of her way and personally arranged this. I am very grateful to her. There will definitely be a return visit as this is now my go-to hotel when I'm in HoustonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r439530517-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439530517</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>Nicely renovated Courtyard. Room is on the small size but plenty of conveniently located outlets and USB ports! Lobby is big and comfortable. Plenty of parking with easy on and off hwy access. Front desk was very nice. Will repeat visit if in the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Nicely renovated Courtyard. Room is on the small size but plenty of conveniently located outlets and USB ports! Lobby is big and comfortable. Plenty of parking with easy on and off hwy access. Front desk was very nice. Will repeat visit if in the area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r438699304-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438699304</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Clean, bright, friendly hotel.</t>
+  </si>
+  <si>
+    <t>We had a fast overnight here...didn't eat there (ordered out from nearby) or have breakfast (wasn't included!).  We did receive a very friendly welcome and the rooms were modern and spacious.  This particular hotel takes some finding if you're coming in on the I-10 but we got there without turning off wrong.  You need to pay attention with your GPS!  We could readily stay here again but only for an overnight...it's a hectic location...great for a fast getaway but the neighbourhood is a traffic nightmare.  Wot, no breakfast...shame.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>We had a fast overnight here...didn't eat there (ordered out from nearby) or have breakfast (wasn't included!).  We did receive a very friendly welcome and the rooms were modern and spacious.  This particular hotel takes some finding if you're coming in on the I-10 but we got there without turning off wrong.  You need to pay attention with your GPS!  We could readily stay here again but only for an overnight...it's a hectic location...great for a fast getaway but the neighbourhood is a traffic nightmare.  Wot, no breakfast...shame.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r435551969-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435551969</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Clean rooms, pleasant staff</t>
+  </si>
+  <si>
+    <t>We have stayed at this location before, but since the last time we were there the rooms have been renovated and look very nice. The staff we encountered were very pleasant and the check in process was nice and smooth. Which is a bonus since we had been driving all day. The room was clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded November 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed at this location before, but since the last time we were there the rooms have been renovated and look very nice. The staff we encountered were very pleasant and the check in process was nice and smooth. Which is a bonus since we had been driving all day. The room was clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r429514371-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429514371</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>It is Marriott but it is different!</t>
+  </si>
+  <si>
+    <t>I came under the impression that it is a Marriott hotel but it turned out something different. The room's furniture is new and good. The toilet is ok but not fantastic. The toiletries are basic, they do not offer a shower gel, instead they offer a soap !Break fast is a set menu, very basic in my opinion. Don't book the room with breakfast if you are going to spend a couple of nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>I came under the impression that it is a Marriott hotel but it turned out something different. The room's furniture is new and good. The toilet is ok but not fantastic. The toiletries are basic, they do not offer a shower gel, instead they offer a soap !Break fast is a set menu, very basic in my opinion. Don't book the room with breakfast if you are going to spend a couple of nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r426831705-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>426831705</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Heaven on earth</t>
+  </si>
+  <si>
+    <t>I liked this place. Had a program there on a Saturday in Marquis 2 &amp; 3 halls and then checked into one of the rooms. Slept there for 2 nights with Wifey. We loved it. The staff are very nice and courteous. Clean environment. I think it's just been newly renovated. MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>I liked this place. Had a program there on a Saturday in Marquis 2 &amp; 3 halls and then checked into one of the rooms. Slept there for 2 nights with Wifey. We loved it. The staff are very nice and courteous. Clean environment. I think it's just been newly renovated. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r425801399-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425801399</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel </t>
+  </si>
+  <si>
+    <t>The hotel was great. I was in Houston for business. The rooms were great. The staff was very professional and polite. Always with a smile. Especially at the front desk and the bistro. They should be commended their job is hard and long but they always have a smile.The food was ok for as i only stayes a week. I like that they had the meal with the amount of calories on the menu.Thanks for a great stayMoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was great. I was in Houston for business. The rooms were great. The staff was very professional and polite. Always with a smile. Especially at the front desk and the bistro. They should be commended their job is hard and long but they always have a smile.The food was ok for as i only stayes a week. I like that they had the meal with the amount of calories on the menu.Thanks for a great stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r412794939-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412794939</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Clean, modern, free breakfast and near Typhoon Texas</t>
+  </si>
+  <si>
+    <t>I put some guys up here who were remodeling my house. They loved it.Just off I-10 but off enough that noise and traffic are not a problem.Pool is small but not nasty in any way.Parking is free.Free breakfast and happy hourWalking distance to Katy Mills Mall.Typhoon Texas water park is close.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2016</t>
+  </si>
+  <si>
+    <t>I put some guys up here who were remodeling my house. They loved it.Just off I-10 but off enough that noise and traffic are not a problem.Pool is small but not nasty in any way.Parking is free.Free breakfast and happy hourWalking distance to Katy Mills Mall.Typhoon Texas water park is close.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r410946328-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410946328</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Newly renovated, clean, and quiet. Nice bar area to relax in the evenings. Friendly check in. Wonderful shower and water pressure (although if you a very large you would probably have a tough time in the narrow shower). MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Newly renovated, clean, and quiet. Nice bar area to relax in the evenings. Friendly check in. Wonderful shower and water pressure (although if you a very large you would probably have a tough time in the narrow shower). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r408915502-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408915502</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Clean and good service</t>
+  </si>
+  <si>
+    <t>I used to stay here years ago. They've updated and the rooms are clean and comfortable. The staff is all very friendly and helpful. I've been here multiple times in the past few months and it has been a good experience every time. The breakfast is fresh and tasty. The snacks and food at the bar are consistently good. I will definitely be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike S, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>I used to stay here years ago. They've updated and the rooms are clean and comfortable. The staff is all very friendly and helpful. I've been here multiple times in the past few months and it has been a good experience every time. The breakfast is fresh and tasty. The snacks and food at the bar are consistently good. I will definitely be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r381380656-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381380656</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t>Good Place to Stay</t>
+  </si>
+  <si>
+    <t>I was pleased with the accommodations.  The facility is modern and the room was quite comfortable.  I was here on business, so I can't speak to the pool and other amenities, but everything appeared to be quite nice.All the staff were friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>mikeseigneur, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>I was pleased with the accommodations.  The facility is modern and the room was quite comfortable.  I was here on business, so I can't speak to the pool and other amenities, but everything appeared to be quite nice.All the staff were friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r380088213-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380088213</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Great hotel and service</t>
+  </si>
+  <si>
+    <t>Fantastic hotel to stay in for both business and pleasure. Great and close to work in energy sector and also malls and shops and close to downtown. Great clean and spaceous rooms. Hotel breakfast is good with a good choice. Service throughout the hotels great and hotel is well worth a stay if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Fantastic hotel to stay in for both business and pleasure. Great and close to work in energy sector and also malls and shops and close to downtown. Great clean and spaceous rooms. Hotel breakfast is good with a good choice. Service throughout the hotels great and hotel is well worth a stay if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r377301633-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377301633</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Updated, but Cut Some Corners and No Coffee in the Lobby</t>
+  </si>
+  <si>
+    <t>First, this location has to be one of the first Courtyards opened after Marriott started the Courtyard brand.  It's a sprawling, large property.  As was pointed out by others, it was recently renovated, but the amusing thing was to notice where they cut corners.  For instance, none of the door hardware was changed out.  I actually got locked in the bathroom because the door handle didn't work properly.  Luckily, my wife was in the room and was able to open the door from the outside.  It took two calls to the front desk to get it repaired properly.  The first call resulted in the problem being worse than before we called.  The second call resulted in them replacing the door handle set, which should have been done during the reno.  Other things not updated included the toilet, toilet seat, electrical receptacles and other infrastructure items.  And, upon check-in, I asked what time coffee was available in the lobby.  Front desk replied that the Starbucks counter opened at 5:30 AM and I could purchase a cup from there.  I've stayed at Hilton Garden Inns, (which I consider a direct competitor) Hampton Inns, and even a full service Hilton, and they all had free coffee in the lobby.  Not Courtyard, evidently.  The other annoying thing about this property is their fluctuating room rates.  We stayed from Sunday through Wednesday.  Sunday was one room rate, Monday and Tuesday quite a bit more.  I...First, this location has to be one of the first Courtyards opened after Marriott started the Courtyard brand.  It's a sprawling, large property.  As was pointed out by others, it was recently renovated, but the amusing thing was to notice where they cut corners.  For instance, none of the door hardware was changed out.  I actually got locked in the bathroom because the door handle didn't work properly.  Luckily, my wife was in the room and was able to open the door from the outside.  It took two calls to the front desk to get it repaired properly.  The first call resulted in the problem being worse than before we called.  The second call resulted in them replacing the door handle set, which should have been done during the reno.  Other things not updated included the toilet, toilet seat, electrical receptacles and other infrastructure items.  And, upon check-in, I asked what time coffee was available in the lobby.  Front desk replied that the Starbucks counter opened at 5:30 AM and I could purchase a cup from there.  I've stayed at Hilton Garden Inns, (which I consider a direct competitor) Hampton Inns, and even a full service Hilton, and they all had free coffee in the lobby.  Not Courtyard, evidently.  The other annoying thing about this property is their fluctuating room rates.  We stayed from Sunday through Wednesday.  Sunday was one room rate, Monday and Tuesday quite a bit more.  I get it, this is a business property, located in the "Energy Corridor," but you could at least keep the rates the same for the duration of a stay...   Overall, a pretty average property.MoreShow less</t>
+  </si>
+  <si>
+    <t>First, this location has to be one of the first Courtyards opened after Marriott started the Courtyard brand.  It's a sprawling, large property.  As was pointed out by others, it was recently renovated, but the amusing thing was to notice where they cut corners.  For instance, none of the door hardware was changed out.  I actually got locked in the bathroom because the door handle didn't work properly.  Luckily, my wife was in the room and was able to open the door from the outside.  It took two calls to the front desk to get it repaired properly.  The first call resulted in the problem being worse than before we called.  The second call resulted in them replacing the door handle set, which should have been done during the reno.  Other things not updated included the toilet, toilet seat, electrical receptacles and other infrastructure items.  And, upon check-in, I asked what time coffee was available in the lobby.  Front desk replied that the Starbucks counter opened at 5:30 AM and I could purchase a cup from there.  I've stayed at Hilton Garden Inns, (which I consider a direct competitor) Hampton Inns, and even a full service Hilton, and they all had free coffee in the lobby.  Not Courtyard, evidently.  The other annoying thing about this property is their fluctuating room rates.  We stayed from Sunday through Wednesday.  Sunday was one room rate, Monday and Tuesday quite a bit more.  I...First, this location has to be one of the first Courtyards opened after Marriott started the Courtyard brand.  It's a sprawling, large property.  As was pointed out by others, it was recently renovated, but the amusing thing was to notice where they cut corners.  For instance, none of the door hardware was changed out.  I actually got locked in the bathroom because the door handle didn't work properly.  Luckily, my wife was in the room and was able to open the door from the outside.  It took two calls to the front desk to get it repaired properly.  The first call resulted in the problem being worse than before we called.  The second call resulted in them replacing the door handle set, which should have been done during the reno.  Other things not updated included the toilet, toilet seat, electrical receptacles and other infrastructure items.  And, upon check-in, I asked what time coffee was available in the lobby.  Front desk replied that the Starbucks counter opened at 5:30 AM and I could purchase a cup from there.  I've stayed at Hilton Garden Inns, (which I consider a direct competitor) Hampton Inns, and even a full service Hilton, and they all had free coffee in the lobby.  Not Courtyard, evidently.  The other annoying thing about this property is their fluctuating room rates.  We stayed from Sunday through Wednesday.  Sunday was one room rate, Monday and Tuesday quite a bit more.  I get it, this is a business property, located in the "Energy Corridor," but you could at least keep the rates the same for the duration of a stay...   Overall, a pretty average property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r365060374-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365060374</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>A very nice hotel to stay; excellent location, staff and value for money</t>
+  </si>
+  <si>
+    <t>Stayed for 4 nights &amp; all were just PERFECT. All the staff including those from the cafeteria were very helpful &amp; warm. Highly satisfied &amp; will obviously go back. There were good restaurants nearby including a Sea food-Grill buffet in 14$. Though the menu for breakfast was limited but was good to taste.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Stayed for 4 nights &amp; all were just PERFECT. All the staff including those from the cafeteria were very helpful &amp; warm. Highly satisfied &amp; will obviously go back. There were good restaurants nearby including a Sea food-Grill buffet in 14$. Though the menu for breakfast was limited but was good to taste.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r362481869-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362481869</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Right off I-10, recently updated hotel. Fantastic breakfast cook!</t>
+  </si>
+  <si>
+    <t>I like Courtyard and this one was recently updated inside - the lobby and rooms seem like new.  The bed was super comfy as always, and the AC worked pretty well, although it was the type that has a unit in the room with no thermostat on the wall.  I managed to get my room nice and cool, though, and slept very well.  Now, the breakfast - sometimes I have been at Courtyards and asked for eggs "over easy" and when they arrived they were more like over hard.  Well, the breakfast cook at this Courtyard rocks - the eggs were perfect - absolutely perfect.  Combined with the sausage and sourdough toast that breakfast made my day!  I will be back for certain.MoreShow less</t>
+  </si>
+  <si>
+    <t>I like Courtyard and this one was recently updated inside - the lobby and rooms seem like new.  The bed was super comfy as always, and the AC worked pretty well, although it was the type that has a unit in the room with no thermostat on the wall.  I managed to get my room nice and cool, though, and slept very well.  Now, the breakfast - sometimes I have been at Courtyards and asked for eggs "over easy" and when they arrived they were more like over hard.  Well, the breakfast cook at this Courtyard rocks - the eggs were perfect - absolutely perfect.  Combined with the sausage and sourdough toast that breakfast made my day!  I will be back for certain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r361532582-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361532582</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Freshly Updated!</t>
+  </si>
+  <si>
+    <t>Stayed one night for a business meeting. Don't let the outside facade fool you- the interior has been completely gutted and remodeled! Rooms were generously sized (typical for TX) as was the common area in the lobby. And for a Courtyard Marriott, the hotel had a lovely courtyard!! Staff was also friendly and helpful. Be sure to put your "privacy" sign on the door if you don't want the maids to knock first thing in the morning. Good location if you need to be in West Houston and in the Energy Corridor. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed one night for a business meeting. Don't let the outside facade fool you- the interior has been completely gutted and remodeled! Rooms were generously sized (typical for TX) as was the common area in the lobby. And for a Courtyard Marriott, the hotel had a lovely courtyard!! Staff was also friendly and helpful. Be sure to put your "privacy" sign on the door if you don't want the maids to knock first thing in the morning. Good location if you need to be in West Houston and in the Energy Corridor. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r343631949-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343631949</t>
+  </si>
+  <si>
+    <t>01/29/2016</t>
+  </si>
+  <si>
+    <t>Quaint, clean hotel - I choose to stay here on every visit</t>
+  </si>
+  <si>
+    <t>I come out here for business about once a month and choose this hotel everytime.  Clean and comfortable, nice quaint courtyard in middle.  Friendly service.  Close to freeway.  Great bistro dining.  Overall satisfied!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded January 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2016</t>
+  </si>
+  <si>
+    <t>I come out here for business about once a month and choose this hotel everytime.  Clean and comfortable, nice quaint courtyard in middle.  Friendly service.  Close to freeway.  Great bistro dining.  Overall satisfied!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r339396936-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339396936</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Handy place</t>
+  </si>
+  <si>
+    <t>Stayed several times at this hotel due to its proximity with the company's former office, reason why it used to be very handy. However Houston is not exactly the most friendly place to stay. One needs a car even to go to the restaurant in front of the hotel, since the city is not for pedestrians at all.Walking, the hotel is far away from anywhere, although it has almost anything you might need. Breakfast is limited and with very few options.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded January 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2016</t>
+  </si>
+  <si>
+    <t>Stayed several times at this hotel due to its proximity with the company's former office, reason why it used to be very handy. However Houston is not exactly the most friendly place to stay. One needs a car even to go to the restaurant in front of the hotel, since the city is not for pedestrians at all.Walking, the hotel is far away from anywhere, although it has almost anything you might need. Breakfast is limited and with very few options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r334440867-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334440867</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>Great place!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here with my family for the America doll show great place. Staff was great. Rooms large and clean. Very convenient to the mall and several restaurants close would highly recommend it. Easy access to the interstate . If ur going to Houston for the American doll shows this is the place to stay. </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r327038987-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327038987</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Nice people, but...</t>
+  </si>
+  <si>
+    <t>We stayed one night because we were in town for my daughter's gymnastics meet.  The lobby is redone and very nice.  The staff was very friendly and helpful.  When we got in our room, we started seeing roaches.  We killed 3 and then went to ask for a new room.  The staff again was so very nice and upgraded us to a suite.  It was spacious and we saw no more bugs.  The next morning, we were heading down to check out and the elevator trapped my 9 year old inside.  We couldn't get the doors to open for several minutes and she was pretty upset.  Again, the staff was exceedingly kind and gave her a snack from the shop for free.  Good location, large rooms, wonderfully kind staff, but the hotel is old and needs some pest control and maintenance.  Despite the kind staff, I wouldn't stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>We stayed one night because we were in town for my daughter's gymnastics meet.  The lobby is redone and very nice.  The staff was very friendly and helpful.  When we got in our room, we started seeing roaches.  We killed 3 and then went to ask for a new room.  The staff again was so very nice and upgraded us to a suite.  It was spacious and we saw no more bugs.  The next morning, we were heading down to check out and the elevator trapped my 9 year old inside.  We couldn't get the doors to open for several minutes and she was pretty upset.  Again, the staff was exceedingly kind and gave her a snack from the shop for free.  Good location, large rooms, wonderfully kind staff, but the hotel is old and needs some pest control and maintenance.  Despite the kind staff, I wouldn't stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r323734594-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323734594</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointed </t>
+  </si>
+  <si>
+    <t>We were recomended this facilty vy a relative and thought because it was a Marriott hotel we could expect the quality and service associated with that name but this was no more tgan a glorified motelComfortable enough though the pull out sofa bed left a lot to be desired One nember of  staff was very rude and unhelpful  to the extent that when we asked for an extra blanket for our daughter we were informed none were available and that did we expect the night reception person to go and buy one from a local store!! and also we - living in England - and me  - a professional person didnt understand English when told none were available The entry cards to our rooms kept failing and we had to keep adking to have them updatedIn all not value for money at all. Charges were not what you would expect from a facility with such serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>We were recomended this facilty vy a relative and thought because it was a Marriott hotel we could expect the quality and service associated with that name but this was no more tgan a glorified motelComfortable enough though the pull out sofa bed left a lot to be desired One nember of  staff was very rude and unhelpful  to the extent that when we asked for an extra blanket for our daughter we were informed none were available and that did we expect the night reception person to go and buy one from a local store!! and also we - living in England - and me  - a professional person didnt understand English when told none were available The entry cards to our rooms kept failing and we had to keep adking to have them updatedIn all not value for money at all. Charges were not what you would expect from a facility with such serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r321700134-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321700134</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Real convenient location for Energy corridor</t>
+  </si>
+  <si>
+    <t>First up, this place is pretty easy to get to, after a transatlantic flight and a zip around the beltway. The rooms are a great size, and comfy. Beds are huge, bathroom is functional. It has a small bar/eating area which is fine for grabbing a burger and a cold beer, and does a pretty good, simple breakfast. Nothing fancy, but hey - it's not like there aren't places to eat in Houston, nearby. I've returned here time after time, due it's location - recommendation in itself I guess.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r317289832-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317289832</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>This Place Rocks</t>
+  </si>
+  <si>
+    <t>This was my first visit to the hotel.  I was quite impressed with each staff member I encountered.  From the smile at the front desk to staff in the bistro, I felt right at home.  It is apparent that the hotel has a Service First approach and mind set.  Kudos to the management of the hotel.  You set the tone and the results speak for themselves!!Chris AdamsMoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>This was my first visit to the hotel.  I was quite impressed with each staff member I encountered.  From the smile at the front desk to staff in the bistro, I felt right at home.  It is apparent that the hotel has a Service First approach and mind set.  Kudos to the management of the hotel.  You set the tone and the results speak for themselves!!Chris AdamsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r314159616-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314159616</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>The Courtyard brand never disappoints</t>
+  </si>
+  <si>
+    <t>It's always good to get what you expect. . .and that's what I really like about the Courtyard brand.  You always get the same comfortable room, the same courteous and gentle staff and on top of that, a good and inexpensive place to get some munchies and breakfast.  Very conveniently located, plenty of parking and spotless.  I will keep coming back to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded September 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2015</t>
+  </si>
+  <si>
+    <t>It's always good to get what you expect. . .and that's what I really like about the Courtyard brand.  You always get the same comfortable room, the same courteous and gentle staff and on top of that, a good and inexpensive place to get some munchies and breakfast.  Very conveniently located, plenty of parking and spotless.  I will keep coming back to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r307306305-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>307306305</t>
+  </si>
+  <si>
+    <t>09/05/2015</t>
+  </si>
+  <si>
+    <t>Convenient for Business</t>
+  </si>
+  <si>
+    <t>I've made far too many trips to Houston for business lately, but this Courtyard makes it easy.  They are located in a perfect spot, just off I10.  Biggest complaint is the heat in the work out room, but I've been told it will be updated soon.  The A/C works great in some rooms, not so good in others, depends on what part of the hotel you are in. The staff are all very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2015</t>
+  </si>
+  <si>
+    <t>I've made far too many trips to Houston for business lately, but this Courtyard makes it easy.  They are located in a perfect spot, just off I10.  Biggest complaint is the heat in the work out room, but I've been told it will be updated soon.  The A/C works great in some rooms, not so good in others, depends on what part of the hotel you are in. The staff are all very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r292994023-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292994023</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Old and Tired</t>
+  </si>
+  <si>
+    <t>My wife and I were in Houston for a long weekend with a number of activities in different parts of town, so the IH10 location was convenient. This hotel needs a total facelift.  Looks like they remodeled the lobby (looks nice and new), but forgot about the rooms and corridors.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded July 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I were in Houston for a long weekend with a number of activities in different parts of town, so the IH10 location was convenient. This hotel needs a total facelift.  Looks like they remodeled the lobby (looks nice and new), but forgot about the rooms and corridors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r292416805-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292416805</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Cockroachs in room!</t>
+  </si>
+  <si>
+    <t>I'm a Gold Elite member with marriott an mostly only stay at marriott properties. This by far the worse Courtyard by Marriott  I've ever stayed in. First being Elite I wasn't even weclome as a elite member which I've done allot of stays to earn my status, next wasn't even told my room number or how to even to get the elevators let alone where my room was located, and the fastest route to my room. I'm in my room, went to the restroom where I saw a 3 inch long cockroach, then I saw a few more that size so caught one and took it to the front desk (night shift July 24-25, 2015) and said I big roaches,  so I asked for a manger, they said none here but a supervisor in the morning.  I will say they did offer another room, but why take another room that might have the same problems.  I finished the stay thinking I would get a call from the supervisor saying sorry that happened or something,  but nothing so I check out seeing the supervisor,  and she didn't know anything about the roaches from her night shift. I note she did say she would credit me member points. I will anyone reading this review don't stay at this hotel, cockroachs,  and very bad customer service,there's to many other choices near there to stay in an environment their providing at this hotel, I...I'm a Gold Elite member with marriott an mostly only stay at marriott properties. This by far the worse Courtyard by Marriott  I've ever stayed in. First being Elite I wasn't even weclome as a elite member which I've done allot of stays to earn my status, next wasn't even told my room number or how to even to get the elevators let alone where my room was located, and the fastest route to my room. I'm in my room, went to the restroom where I saw a 3 inch long cockroach, then I saw a few more that size so caught one and took it to the front desk (night shift July 24-25, 2015) and said I big roaches,  so I asked for a manger, they said none here but a supervisor in the morning.  I will say they did offer another room, but why take another room that might have the same problems.  I finished the stay thinking I would get a call from the supervisor saying sorry that happened or something,  but nothing so I check out seeing the supervisor,  and she didn't know anything about the roaches from her night shift. I note she did say she would credit me member points. I will anyone reading this review don't stay at this hotel, cockroachs,  and very bad customer service,there's to many other choices near there to stay in an environment their providing at this hotel, I mean to not pass down to the next shift about cockroachs being the room, says to me they don't care about the people paying to stay there. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>I'm a Gold Elite member with marriott an mostly only stay at marriott properties. This by far the worse Courtyard by Marriott  I've ever stayed in. First being Elite I wasn't even weclome as a elite member which I've done allot of stays to earn my status, next wasn't even told my room number or how to even to get the elevators let alone where my room was located, and the fastest route to my room. I'm in my room, went to the restroom where I saw a 3 inch long cockroach, then I saw a few more that size so caught one and took it to the front desk (night shift July 24-25, 2015) and said I big roaches,  so I asked for a manger, they said none here but a supervisor in the morning.  I will say they did offer another room, but why take another room that might have the same problems.  I finished the stay thinking I would get a call from the supervisor saying sorry that happened or something,  but nothing so I check out seeing the supervisor,  and she didn't know anything about the roaches from her night shift. I note she did say she would credit me member points. I will anyone reading this review don't stay at this hotel, cockroachs,  and very bad customer service,there's to many other choices near there to stay in an environment their providing at this hotel, I...I'm a Gold Elite member with marriott an mostly only stay at marriott properties. This by far the worse Courtyard by Marriott  I've ever stayed in. First being Elite I wasn't even weclome as a elite member which I've done allot of stays to earn my status, next wasn't even told my room number or how to even to get the elevators let alone where my room was located, and the fastest route to my room. I'm in my room, went to the restroom where I saw a 3 inch long cockroach, then I saw a few more that size so caught one and took it to the front desk (night shift July 24-25, 2015) and said I big roaches,  so I asked for a manger, they said none here but a supervisor in the morning.  I will say they did offer another room, but why take another room that might have the same problems.  I finished the stay thinking I would get a call from the supervisor saying sorry that happened or something,  but nothing so I check out seeing the supervisor,  and she didn't know anything about the roaches from her night shift. I note she did say she would credit me member points. I will anyone reading this review don't stay at this hotel, cockroachs,  and very bad customer service,there's to many other choices near there to stay in an environment their providing at this hotel, I mean to not pass down to the next shift about cockroachs being the room, says to me they don't care about the people paying to stay there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r271972925-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271972925</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>Multiple creatures in the room</t>
+  </si>
+  <si>
+    <t>I stay at Marriott properties often, and when I do I usually stay at a Courtyard. Even the older properties have generally seemed clean and well cared for, but not this one. 
+When I arrived, there was a slightly musty smell about the whole property, I brushed that off, attributing it to all the rain the area had gotten recently. When I got to my room, it seemed clean enough, but there were sugar ants in the sink. Again, having only seen two or three, I chalked it up to the weather and figured if that was the worst issue in my room, I'd be fine to stay the night. 
+The next morning I woke up, went to shower, and when I got out of the shower I found a cockroach sitting on the desk phone, and a 4-5 inch earth worm crawling out from under the bed. 
+I attempted to call the front desk from the other phone in the room, but it wasn't working. I quickly threw everything in my suitcase, went back through the outdoor courtyard to the main building and informed the front desk of the issues. As the manager wasn't onsite at that time, all they were able to do for me was give me another room to finish getting ready for work in (I wasn't allowed to have that as a new room though) and a voucher for a free breakfast (no offer of...I stay at Marriott properties often, and when I do I usually stay at a Courtyard. Even the older properties have generally seemed clean and well cared for, but not this one. When I arrived, there was a slightly musty smell about the whole property, I brushed that off, attributing it to all the rain the area had gotten recently. When I got to my room, it seemed clean enough, but there were sugar ants in the sink. Again, having only seen two or three, I chalked it up to the weather and figured if that was the worst issue in my room, I'd be fine to stay the night. The next morning I woke up, went to shower, and when I got out of the shower I found a cockroach sitting on the desk phone, and a 4-5 inch earth worm crawling out from under the bed. I attempted to call the front desk from the other phone in the room, but it wasn't working. I quickly threw everything in my suitcase, went back through the outdoor courtyard to the main building and informed the front desk of the issues. As the manager wasn't onsite at that time, all they were able to do for me was give me another room to finish getting ready for work in (I wasn't allowed to have that as a new room though) and a voucher for a free breakfast (no offer of an additional voucher for the colleague I mentioned I was traveling with and meeting for breakfast). They said they would speak to the manager and give me a new room once I returned in the afternoon, but at that point I had no desire to spend another night there and booked a room at another hotel for that night. This may be a one-off for them, but the property in general seemed run-down and in desperate need of renovations. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle V, Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded May 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2015</t>
+  </si>
+  <si>
+    <t>I stay at Marriott properties often, and when I do I usually stay at a Courtyard. Even the older properties have generally seemed clean and well cared for, but not this one. 
+When I arrived, there was a slightly musty smell about the whole property, I brushed that off, attributing it to all the rain the area had gotten recently. When I got to my room, it seemed clean enough, but there were sugar ants in the sink. Again, having only seen two or three, I chalked it up to the weather and figured if that was the worst issue in my room, I'd be fine to stay the night. 
+The next morning I woke up, went to shower, and when I got out of the shower I found a cockroach sitting on the desk phone, and a 4-5 inch earth worm crawling out from under the bed. 
+I attempted to call the front desk from the other phone in the room, but it wasn't working. I quickly threw everything in my suitcase, went back through the outdoor courtyard to the main building and informed the front desk of the issues. As the manager wasn't onsite at that time, all they were able to do for me was give me another room to finish getting ready for work in (I wasn't allowed to have that as a new room though) and a voucher for a free breakfast (no offer of...I stay at Marriott properties often, and when I do I usually stay at a Courtyard. Even the older properties have generally seemed clean and well cared for, but not this one. When I arrived, there was a slightly musty smell about the whole property, I brushed that off, attributing it to all the rain the area had gotten recently. When I got to my room, it seemed clean enough, but there were sugar ants in the sink. Again, having only seen two or three, I chalked it up to the weather and figured if that was the worst issue in my room, I'd be fine to stay the night. The next morning I woke up, went to shower, and when I got out of the shower I found a cockroach sitting on the desk phone, and a 4-5 inch earth worm crawling out from under the bed. I attempted to call the front desk from the other phone in the room, but it wasn't working. I quickly threw everything in my suitcase, went back through the outdoor courtyard to the main building and informed the front desk of the issues. As the manager wasn't onsite at that time, all they were able to do for me was give me another room to finish getting ready for work in (I wasn't allowed to have that as a new room though) and a voucher for a free breakfast (no offer of an additional voucher for the colleague I mentioned I was traveling with and meeting for breakfast). They said they would speak to the manager and give me a new room once I returned in the afternoon, but at that point I had no desire to spend another night there and booked a room at another hotel for that night. This may be a one-off for them, but the property in general seemed run-down and in desperate need of renovations. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r264347945-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264347945</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Weird Property</t>
+  </si>
+  <si>
+    <t>This Courtyard just has a weird vibe. The lobby is nice enough, but getting to your room is an obstacle course. Most of the room are in a separate building and the elevators are hard to find. Some only go to the 2nd floor while others go to the 3rd floor. The halls are dark and the room need updating. Would I stay here again. Probably not.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded April 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2015</t>
+  </si>
+  <si>
+    <t>This Courtyard just has a weird vibe. The lobby is nice enough, but getting to your room is an obstacle course. Most of the room are in a separate building and the elevators are hard to find. Some only go to the 2nd floor while others go to the 3rd floor. The halls are dark and the room need updating. Would I stay here again. Probably not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r260969616-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260969616</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>This hotel has a very nice foyer and entrance. The front staff were always very polite and helpful. We were there on a Thursday and Friday of spring break and it was quiet. We were in room 201 which faced the pool so no traffic was heard.  Now, the reason for my three stars...the mattress on the pull out couch had blood stains all over it!  For that reason, we won't go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2015</t>
+  </si>
+  <si>
+    <t>This hotel has a very nice foyer and entrance. The front staff were always very polite and helpful. We were there on a Thursday and Friday of spring break and it was quiet. We were in room 201 which faced the pool so no traffic was heard.  Now, the reason for my three stars...the mattress on the pull out couch had blood stains all over it!  For that reason, we won't go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r255423113-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255423113</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Located Adjacent to Interstate 10 in West Houston</t>
+  </si>
+  <si>
+    <t>This Courtyard by Marriott is a small oasis in a sea of very busy streets, highways and lots of traffic. It is a good place to stay if you have business in the area or are passing through Houston and want and easy off, easy on highway location. We were warmly welcomed and our room was cozy, but the mattress could have been firmer for a better sleep. The little breakfast restaurant downstairs was convenient. There is not much we found to do in the immediate area. Our selection of that Marriott was made at the suggestion of a relative who we were visiting nearby. Next time, we will stay in a Marriott closer to the Museum District. The parking lot had ample warnings about securing your vehicle and valuables like you find most everywhere. Getting back to the motel when returning from a trip to the South required extra driving around the block. The motel is oriented toward the business traveler and has conference rooms and meeting areas right in the breakfast area. It felt like it was converted to a motel from another use or was recently upgraded. Staff was very helpful and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded February 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2015</t>
+  </si>
+  <si>
+    <t>This Courtyard by Marriott is a small oasis in a sea of very busy streets, highways and lots of traffic. It is a good place to stay if you have business in the area or are passing through Houston and want and easy off, easy on highway location. We were warmly welcomed and our room was cozy, but the mattress could have been firmer for a better sleep. The little breakfast restaurant downstairs was convenient. There is not much we found to do in the immediate area. Our selection of that Marriott was made at the suggestion of a relative who we were visiting nearby. Next time, we will stay in a Marriott closer to the Museum District. The parking lot had ample warnings about securing your vehicle and valuables like you find most everywhere. Getting back to the motel when returning from a trip to the South required extra driving around the block. The motel is oriented toward the business traveler and has conference rooms and meeting areas right in the breakfast area. It felt like it was converted to a motel from another use or was recently upgraded. Staff was very helpful and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r237882530-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237882530</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>My family of four stayed here for one night while visiting friends. The hotel seems older but the inside is nicely renovated and very clean which is a big deal for me.  I have twin four year old boys who are loud and love to play around.  I'm always concerned that we are too loud but for some reason this hotel felt really well built. And we did not hear anyone around us. Not sure if the hotel was empty or if the rooms are well built.  Worth staying.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r228021589-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228021589</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>It's, um, ok</t>
+  </si>
+  <si>
+    <t>Super nice people work here so that should be mentioned. But the rooms are a little tired (as I stare at bulging paint from water damage over my bed). Wifi recently improved so reliable and speedy. But did I mention the tired rooms?MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Michelle V, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Super nice people work here so that should be mentioned. But the rooms are a little tired (as I stare at bulging paint from water damage over my bed). Wifi recently improved so reliable and speedy. But did I mention the tired rooms?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r226727871-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226727871</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Soccer Tournament Hotel</t>
+  </si>
+  <si>
+    <t>Our family stayed here while my daughter played in a soccer tournament over the Labor Day Weekend.  The hotel was very close to the soccer fields (Bear Creek), easy to get back and forth from the fields, and very accommodating to the teams.  The lobby was spacious and had a separate bar area with tables, large screen tv and sofas.  The staff was very accommodating allowing our group to order pizzas and watch the college football game on the TV on Sat. evening (we were asked to purchase alcohol through their bar).  Rooms were clean, beds comfortable, maid service very good.  Only reason it wasn't 5 stars is the breakfast, which was included in the price, was just ok.  A bit more variety and better coffee would have been nice.  But for the price,and the service, I would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Our family stayed here while my daughter played in a soccer tournament over the Labor Day Weekend.  The hotel was very close to the soccer fields (Bear Creek), easy to get back and forth from the fields, and very accommodating to the teams.  The lobby was spacious and had a separate bar area with tables, large screen tv and sofas.  The staff was very accommodating allowing our group to order pizzas and watch the college football game on the TV on Sat. evening (we were asked to purchase alcohol through their bar).  Rooms were clean, beds comfortable, maid service very good.  Only reason it wasn't 5 stars is the breakfast, which was included in the price, was just ok.  A bit more variety and better coffee would have been nice.  But for the price,and the service, I would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r217342269-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217342269</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Professional &amp; clean</t>
+  </si>
+  <si>
+    <t>We stayed for 1 night around July 4th. We had booked through Priceline, and I was somewhat apprehensive upon reading some Priceline travelers' experiences with hotel stays (in general).No reason for worry at this hotel. The receptionist was as delightful and courteous as one would expect from a five star hotel. The room was clean and fully functional, though the window A/C somewhat tired. WiFi included, which was not the case at a much more upscale hotel in the Galleria area. Good experience overall.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r212707943-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212707943</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>Wins Award for Worst Mattress Ever</t>
+  </si>
+  <si>
+    <t>Spent 1 nite only--thankfully. Hotel was clean, altho older. Employee at front desk was professional and parking adequate. However---this was quite possibly the worst mattress my husband or I had ever seen. It was lumpy, had an extreme "dip" in the middle, and was overly soft. The pillows were as flat as pancakes. Obviously, they were well-used. After a poor nite's sleep, we vowed to never stay here again despite the convenient location for our trips to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Steve R, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Spent 1 nite only--thankfully. Hotel was clean, altho older. Employee at front desk was professional and parking adequate. However---this was quite possibly the worst mattress my husband or I had ever seen. It was lumpy, had an extreme "dip" in the middle, and was overly soft. The pillows were as flat as pancakes. Obviously, they were well-used. After a poor nite's sleep, we vowed to never stay here again despite the convenient location for our trips to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r208200476-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208200476</t>
+  </si>
+  <si>
+    <t>05/31/2014</t>
+  </si>
+  <si>
+    <t>Great location but showing its age</t>
+  </si>
+  <si>
+    <t>This location is well-run. But, it has been around for a long time and it Is a bit dated. The rooms can be a hike and parking a challenge if the "convention center" is in use for a group or a church meeting. Still, location is excellent with good restaurants nearby, easy access to I-10 Katy Freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Steve R, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2014</t>
+  </si>
+  <si>
+    <t>This location is well-run. But, it has been around for a long time and it Is a bit dated. The rooms can be a hike and parking a challenge if the "convention center" is in use for a group or a church meeting. Still, location is excellent with good restaurants nearby, easy access to I-10 Katy Freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r198180576-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198180576</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>terrible service!</t>
+  </si>
+  <si>
+    <t>i've been staying at that hotel for two weeks and was deeply disappointed. Constant problems with the shuttle-bus, it was either late (and traffics were not a reason) or even forgot to pick us up from the office. Housekeepers were giggling and speaking sooo loudly all day long in the corridors, though there were lots of "don't disturb" labels on the doors. There were not bathrobes and slippers in the room. A bottle of still water was $2.50 . Wi-fi was usually slow or even down. One more point was that the bistro was working till 10 am, so you won't be able to have a cup of coffe till 5 pm if you are in the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Steve R, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2014</t>
+  </si>
+  <si>
+    <t>i've been staying at that hotel for two weeks and was deeply disappointed. Constant problems with the shuttle-bus, it was either late (and traffics were not a reason) or even forgot to pick us up from the office. Housekeepers were giggling and speaking sooo loudly all day long in the corridors, though there were lots of "don't disturb" labels on the doors. There were not bathrobes and slippers in the room. A bottle of still water was $2.50 . Wi-fi was usually slow or even down. One more point was that the bistro was working till 10 am, so you won't be able to have a cup of coffe till 5 pm if you are in the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r194386211-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194386211</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Internet slow or down</t>
+  </si>
+  <si>
+    <t>Not much more to add. Was here for a week and it was lousy the entire time. How can a hotel in 2014 not have reliable, decent internet service???Hoterl staff were very nice. This rating is strictly due to the Internet lack of service.Trip was combined government business/personal travel. I was on the government rate for work, they would not let me have the lower special rate for the weekend while I was on persoanl travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Steve R, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Not much more to add. Was here for a week and it was lousy the entire time. How can a hotel in 2014 not have reliable, decent internet service???Hoterl staff were very nice. This rating is strictly due to the Internet lack of service.Trip was combined government business/personal travel. I was on the government rate for work, they would not let me have the lower special rate for the weekend while I was on persoanl travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r192692003-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192692003</t>
+  </si>
+  <si>
+    <t>01/31/2014</t>
+  </si>
+  <si>
+    <t>Average - Dislike the new breakfast setup</t>
+  </si>
+  <si>
+    <t>The hotel has had a makeover since I stayed there last, a few years ago.  The entrance lobby is now cavernous, to the point that it feels more like a huge conference room than a hotel entrance lobby.  The service at the front desk was decent, nothing to complain about or complement.  The rooms were very comfortable, and I have to say, I loved the Paul Mitchell amenities.  The shampoo was the highlight.  The beds and sheets were also very nice.However, the most unappreciated part of the hotel is new breakfast system.  They have removed the buffet breakfast, and instituted a wannabe trendy cafe, where you are given a ticket to order a menu item.  Giving them a paper ticket feels so unprofessional and cheap. If wanted to order breakfast from a menu, I would go to a restaurant.  From the hotel, I want the opportunity to choose what I want and get in an out quickly.  I don't expect or appreciate the attempt to be gourmet at the Courtyard, when I know that in the back kitchen, these items are probably mass-produced from packages and containers.  They make a good attempt at hip, and maybe this really works for some, but it was not to my liking, and I won't be returning to this Courtyard, which is unfortunate, because as a Marriott Rewards member, I like to stay at Marriott properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Steve R, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded February 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2014</t>
+  </si>
+  <si>
+    <t>The hotel has had a makeover since I stayed there last, a few years ago.  The entrance lobby is now cavernous, to the point that it feels more like a huge conference room than a hotel entrance lobby.  The service at the front desk was decent, nothing to complain about or complement.  The rooms were very comfortable, and I have to say, I loved the Paul Mitchell amenities.  The shampoo was the highlight.  The beds and sheets were also very nice.However, the most unappreciated part of the hotel is new breakfast system.  They have removed the buffet breakfast, and instituted a wannabe trendy cafe, where you are given a ticket to order a menu item.  Giving them a paper ticket feels so unprofessional and cheap. If wanted to order breakfast from a menu, I would go to a restaurant.  From the hotel, I want the opportunity to choose what I want and get in an out quickly.  I don't expect or appreciate the attempt to be gourmet at the Courtyard, when I know that in the back kitchen, these items are probably mass-produced from packages and containers.  They make a good attempt at hip, and maybe this really works for some, but it was not to my liking, and I won't be returning to this Courtyard, which is unfortunate, because as a Marriott Rewards member, I like to stay at Marriott properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r179537547-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179537547</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Long Business Stay</t>
+  </si>
+  <si>
+    <t>Business hotel. Easy connect to various locations. Malls nearby. Very friendly staff. Good breakfast menu. Very cordial bus ride to customers location. Flexible and friendly. Taxi service in Houston is bad, hence, recommend hire a vehicle and drive along. Overall good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Steve R, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Business hotel. Easy connect to various locations. Malls nearby. Very friendly staff. Good breakfast menu. Very cordial bus ride to customers location. Flexible and friendly. Taxi service in Houston is bad, hence, recommend hire a vehicle and drive along. Overall good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r175344914-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175344914</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>Freight train in my room</t>
+  </si>
+  <si>
+    <t>Arrived on a very late flight to check-in.  Was assigned a room where I needed to walk outside across a courtyard pulling my luggage (I'd hate to have to do this in a rainstorm).  Turned on my air conditioner and it turned into a freight train - rattling and rumbling amazingly loudly.  Too tired to get dressed and change rooms; plus only a few hours until my meeting I stayed and tried to sleep.  Check your air conditioner before you settle in.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Arrived on a very late flight to check-in.  Was assigned a room where I needed to walk outside across a courtyard pulling my luggage (I'd hate to have to do this in a rainstorm).  Turned on my air conditioner and it turned into a freight train - rattling and rumbling amazingly loudly.  Too tired to get dressed and change rooms; plus only a few hours until my meeting I stayed and tried to sleep.  Check your air conditioner before you settle in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r168122826-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168122826</t>
+  </si>
+  <si>
+    <t>07/18/2013</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>Hotel was conveniently located right off of I-10.  The room was clean and sizable.  The bed and the furnishings were comfortable.  Lobby is large and has the typical restaurant found in Courtyards.  The room was quiet even on the first floor.  The price was reasonable for Houston.  Service desk was very friendly and helpful.  The fitness room was nice, but too small for the number of people attempting to use the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Steve R, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded July 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2013</t>
+  </si>
+  <si>
+    <t>Hotel was conveniently located right off of I-10.  The room was clean and sizable.  The bed and the furnishings were comfortable.  Lobby is large and has the typical restaurant found in Courtyards.  The room was quiet even on the first floor.  The price was reasonable for Houston.  Service desk was very friendly and helpful.  The fitness room was nice, but too small for the number of people attempting to use the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r158394754-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158394754</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>Good solid Courtyard</t>
+  </si>
+  <si>
+    <t>This was my first visit to this Courtyard.  It has the newly remodeled Bistro which is nice.  There was also a fitness room and because I'm an earlier riser, I had it to myself.  However with only 3 machines, it could get tight real fast.Room was standard - the towels did seem fairly thin for a $200+ per night place.  Sleep quality was good and room was clean.One negative - they ran out of bananas one morning for breakfast.  Despite that, I'd return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Steve R, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>This was my first visit to this Courtyard.  It has the newly remodeled Bistro which is nice.  There was also a fitness room and because I'm an earlier riser, I had it to myself.  However with only 3 machines, it could get tight real fast.Room was standard - the towels did seem fairly thin for a $200+ per night place.  Sleep quality was good and room was clean.One negative - they ran out of bananas one morning for breakfast.  Despite that, I'd return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r158204997-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158204997</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Exceeded expectations for large group (40 plus)</t>
+  </si>
+  <si>
+    <t>Quiet, cool and peaceful despite being only a few yards off I-10.  Staff was absolutely remarkable.  Paperwork, which is usually a nightmare for large groups, was handled wonderfully.  We were all placed close to one another, we got good individual attention, there was no confusion or difficulty getting bills sorted, rooms were fairly nice, and parking was plentiful.  We really only needed a place to sleep comfortably for one night since we were in Houston for a tournament the following day.  We got that minimum good night's rest and considered the place quite a bargain.  There are plenty of gas stations and restaurants nearby and the hotel sits at a major road intersection on the Eastbound I-10 access road which allows easy access back to the Westbound I-10.  Our room faced West and had no noise problems.  AC was quiet and efficient.  Bathroom had obviously been redone recently and was really nice.  King Bed was great for two and there were plenty of accessible plugs around the room.  All computer and electrical connections and recharging easy to find and use.  Hallways and elevators good.  We were in late and out early so did not use or observe food service.  Courtyard area very quiet and pleasant place to sit and pool was in use and appeared fairly nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quiet, cool and peaceful despite being only a few yards off I-10.  Staff was absolutely remarkable.  Paperwork, which is usually a nightmare for large groups, was handled wonderfully.  We were all placed close to one another, we got good individual attention, there was no confusion or difficulty getting bills sorted, rooms were fairly nice, and parking was plentiful.  We really only needed a place to sleep comfortably for one night since we were in Houston for a tournament the following day.  We got that minimum good night's rest and considered the place quite a bargain.  There are plenty of gas stations and restaurants nearby and the hotel sits at a major road intersection on the Eastbound I-10 access road which allows easy access back to the Westbound I-10.  Our room faced West and had no noise problems.  AC was quiet and efficient.  Bathroom had obviously been redone recently and was really nice.  King Bed was great for two and there were plenty of accessible plugs around the room.  All computer and electrical connections and recharging easy to find and use.  Hallways and elevators good.  We were in late and out early so did not use or observe food service.  Courtyard area very quiet and pleasant place to sit and pool was in use and appeared fairly nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r157372276-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157372276</t>
+  </si>
+  <si>
+    <t>04/10/2013</t>
+  </si>
+  <si>
+    <t>Unreliable</t>
+  </si>
+  <si>
+    <t>I have stayed at the Marriot Courtyard a couple of times, but never again.  Their bookings are unreliable and they have extremely poor customer service.  They overbooked my room despite a guaranteed room that was booked 2 months in advance.  Their “remedy” was an offer to put me in a hotel down the street at their expense.  To add insult to injury the alternate hotel turned out to be a 3rd rate hotel at half the price.  The final straw was after verbally telling me they were going to cover all three nights, it turns out they only approved the first night and left me with a bill for the rest.  I was shocked.  It is easy to give good reviews when everything goes well, but the real test of customer service is how they handle the situation when things go wrong, in this case it was a total fail, not once, not twice, but three times.MoreShow less</t>
+  </si>
+  <si>
+    <t>Steve R, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded April 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at the Marriot Courtyard a couple of times, but never again.  Their bookings are unreliable and they have extremely poor customer service.  They overbooked my room despite a guaranteed room that was booked 2 months in advance.  Their “remedy” was an offer to put me in a hotel down the street at their expense.  To add insult to injury the alternate hotel turned out to be a 3rd rate hotel at half the price.  The final straw was after verbally telling me they were going to cover all three nights, it turns out they only approved the first night and left me with a bill for the rest.  I was shocked.  It is easy to give good reviews when everything goes well, but the real test of customer service is how they handle the situation when things go wrong, in this case it was a total fail, not once, not twice, but three times.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r153957247-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153957247</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Convenient, comfortable, and reasonable!</t>
+  </si>
+  <si>
+    <t>Brief two night stay.  Check in and out was effortless.  Clean and contemporary with best prices in town.  While the breakfast is extra, it is cooked to order and offers healthy choices.  Rooms were spacious and recently remodeled.  Very comfortable!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Jon C, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded March 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2013</t>
+  </si>
+  <si>
+    <t>Brief two night stay.  Check in and out was effortless.  Clean and contemporary with best prices in town.  While the breakfast is extra, it is cooked to order and offers healthy choices.  Rooms were spacious and recently remodeled.  Very comfortable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r153882366-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153882366</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>Comfortable, but noisy.</t>
+  </si>
+  <si>
+    <t>I stayed here on a four-day trip and was not thrilled.  It starts out promising with a very nice lobby that features several seating areas with a bistro and business center and free cookies, but my room was quite average.  I expected much better from a Marriot Courtyard.  My room faced Dairy Ashford Road and was very noisy along with very bright lights shining in the room at night.  There was also a two inch gap between the bottom of the door and the hall that let in much noise and light.  The bed was very comfortable, which was great for a multi-night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here on a four-day trip and was not thrilled.  It starts out promising with a very nice lobby that features several seating areas with a bistro and business center and free cookies, but my room was quite average.  I expected much better from a Marriot Courtyard.  My room faced Dairy Ashford Road and was very noisy along with very bright lights shining in the room at night.  There was also a two inch gap between the bottom of the door and the hall that let in much noise and light.  The bed was very comfortable, which was great for a multi-night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r151484851-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151484851</t>
+  </si>
+  <si>
+    <t>02/05/2013</t>
+  </si>
+  <si>
+    <t>Good night sleep</t>
+  </si>
+  <si>
+    <t>We thoroughly enjoyed our stay at the Courtyard. Check in was a breeze, the room clean and comfortable. The pillows were actually substantial. Much better than the flat ones often available. Best part was the new Bistro. A quick flavorful breakfast before hitting the road. Sure beat fast food. We found the hotel to be well located with several highly rated restaurants close by.  Will certainly return here on future visits. MoreShow less</t>
+  </si>
+  <si>
+    <t>We thoroughly enjoyed our stay at the Courtyard. Check in was a breeze, the room clean and comfortable. The pillows were actually substantial. Much better than the flat ones often available. Best part was the new Bistro. A quick flavorful breakfast before hitting the road. Sure beat fast food. We found the hotel to be well located with several highly rated restaurants close by.  Will certainly return here on future visits. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r145705698-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145705698</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>Business trip convenient</t>
+  </si>
+  <si>
+    <t>Convenient to your business trip, minutes driving from all the mega energy entities in houston and directly on the katy freeway. But a car is a must. The hotel service atterndees are son friendly during check-in. Worst bit was the breakfast it's limited set menu you get to choose out of 3 or 4 options max. All in all, its a clean place to stay overnight but the AC's in the rooms are a little noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Jon C, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded November 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2012</t>
+  </si>
+  <si>
+    <t>Convenient to your business trip, minutes driving from all the mega energy entities in houston and directly on the katy freeway. But a car is a must. The hotel service atterndees are son friendly during check-in. Worst bit was the breakfast it's limited set menu you get to choose out of 3 or 4 options max. All in all, its a clean place to stay overnight but the AC's in the rooms are a little noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r134674570-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134674570</t>
+  </si>
+  <si>
+    <t>07/17/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel &amp; Staff</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay at this hotel. This was our first time staying at a Courtyard and we were very pleased.  The property is in a great location and was very quiet.  Even though it is not a new hotel, it is immaculate, bright and modern.  The rooms are quite spacious and comfortable.  The front desk staff were wonderful, helpful and attentive.  Even if we walked through the lobby several times a day, we were always greeted with a smile and asked if our room was ok and if there was anything we needed.   I was even more impressed by the manager, Jon.  Upon our return home, I received an e-mail inquiring about our stay.  I must say that I have never before received such an e-mail from the manager of a hotel in all the years that we have traveled.  We had an enjoyable and relaxing weekend getaway and will most certainly return to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Jon C, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded August 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2012</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay at this hotel. This was our first time staying at a Courtyard and we were very pleased.  The property is in a great location and was very quiet.  Even though it is not a new hotel, it is immaculate, bright and modern.  The rooms are quite spacious and comfortable.  The front desk staff were wonderful, helpful and attentive.  Even if we walked through the lobby several times a day, we were always greeted with a smile and asked if our room was ok and if there was anything we needed.   I was even more impressed by the manager, Jon.  Upon our return home, I received an e-mail inquiring about our stay.  I must say that I have never before received such an e-mail from the manager of a hotel in all the years that we have traveled.  We had an enjoyable and relaxing weekend getaway and will most certainly return to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r130738301-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130738301</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Really Nice Experience</t>
+  </si>
+  <si>
+    <t>The moment I walked in the front door, I was greeted by enthusiastic and friendly staff.  A young man named Patrick is truly a credit to your facility.  He did everything possible to make sure my needs were met.  I had made a reservation mistake, and he jumped through a few hoops for me to fix it.  I truly appreciate the warm reception.  We were in Houston for yet another soccer tournament, and the hotel was filled to capacity.  I know that can be really hard on hotel staff, but you would think by the front desk reception that we were the only guests in the hotel.  There was a young woman there with Patrick who was doing a great job as well.  Our King room was not the largest, but it was very comfortable and clean.  My sister in law got a room with two queens that was huge.  The pool facilities were very nice and secluded in the middle of the hotel away from the roadway.  I appreciate that since I have little children.  My electronic key card always worked on all the necessary doors.  This may sound silly that I mention this, but I can't tell you how many other hotels have trouble with this.  I appreciate it when they work properly.  When I was walking through the huge lobby area on the final day of our stay, one of the employees who I think was a...The moment I walked in the front door, I was greeted by enthusiastic and friendly staff.  A young man named Patrick is truly a credit to your facility.  He did everything possible to make sure my needs were met.  I had made a reservation mistake, and he jumped through a few hoops for me to fix it.  I truly appreciate the warm reception.  We were in Houston for yet another soccer tournament, and the hotel was filled to capacity.  I know that can be really hard on hotel staff, but you would think by the front desk reception that we were the only guests in the hotel.  There was a young woman there with Patrick who was doing a great job as well.  Our King room was not the largest, but it was very comfortable and clean.  My sister in law got a room with two queens that was huge.  The pool facilities were very nice and secluded in the middle of the hotel away from the roadway.  I appreciate that since I have little children.  My electronic key card always worked on all the necessary doors.  This may sound silly that I mention this, but I can't tell you how many other hotels have trouble with this.  I appreciate it when they work properly.  When I was walking through the huge lobby area on the final day of our stay, one of the employees who I think was a manager went out of his way to ask me how my stay had been and how did I like my room.  He went on to ask if there was anything they could do to make our stay better.  I can't say enough how impressed I was with the feeling I got from all of the staff that they actually cared about my stay there, and especially since the hotel was filled to capacity with children for various soccer and baseball events.  Great job guys!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Jon C, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded May 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2012</t>
+  </si>
+  <si>
+    <t>The moment I walked in the front door, I was greeted by enthusiastic and friendly staff.  A young man named Patrick is truly a credit to your facility.  He did everything possible to make sure my needs were met.  I had made a reservation mistake, and he jumped through a few hoops for me to fix it.  I truly appreciate the warm reception.  We were in Houston for yet another soccer tournament, and the hotel was filled to capacity.  I know that can be really hard on hotel staff, but you would think by the front desk reception that we were the only guests in the hotel.  There was a young woman there with Patrick who was doing a great job as well.  Our King room was not the largest, but it was very comfortable and clean.  My sister in law got a room with two queens that was huge.  The pool facilities were very nice and secluded in the middle of the hotel away from the roadway.  I appreciate that since I have little children.  My electronic key card always worked on all the necessary doors.  This may sound silly that I mention this, but I can't tell you how many other hotels have trouble with this.  I appreciate it when they work properly.  When I was walking through the huge lobby area on the final day of our stay, one of the employees who I think was a...The moment I walked in the front door, I was greeted by enthusiastic and friendly staff.  A young man named Patrick is truly a credit to your facility.  He did everything possible to make sure my needs were met.  I had made a reservation mistake, and he jumped through a few hoops for me to fix it.  I truly appreciate the warm reception.  We were in Houston for yet another soccer tournament, and the hotel was filled to capacity.  I know that can be really hard on hotel staff, but you would think by the front desk reception that we were the only guests in the hotel.  There was a young woman there with Patrick who was doing a great job as well.  Our King room was not the largest, but it was very comfortable and clean.  My sister in law got a room with two queens that was huge.  The pool facilities were very nice and secluded in the middle of the hotel away from the roadway.  I appreciate that since I have little children.  My electronic key card always worked on all the necessary doors.  This may sound silly that I mention this, but I can't tell you how many other hotels have trouble with this.  I appreciate it when they work properly.  When I was walking through the huge lobby area on the final day of our stay, one of the employees who I think was a manager went out of his way to ask me how my stay had been and how did I like my room.  He went on to ask if there was anything they could do to make our stay better.  I can't say enough how impressed I was with the feeling I got from all of the staff that they actually cared about my stay there, and especially since the hotel was filled to capacity with children for various soccer and baseball events.  Great job guys!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r125643636-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125643636</t>
+  </si>
+  <si>
+    <t>03/05/2012</t>
+  </si>
+  <si>
+    <t>Very nice Courtyard</t>
+  </si>
+  <si>
+    <t>I stayed here 2 nights on my most recent business trip to Houston because all the downtown hotels were full due to the Texas Rodeo. I was plesently surprised of the resonable cost compared to the downtown hotels.  The commute was only 20-30 minutes to downtown.  The property is located very near the toll road and I-610 loop.  Quick access to the westside.  The Bistro was great.  I had their healthy breakfast sandwich that was served quick and hot.  Only 390 calories.  I was very impressed with the staff.  The morning I had breakfast the Bistro fulled up quickly and there was a long line.  The manager on duty quickly came over and expedited the service.  Great Job.  I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Jon C, General Manager at Courtyard Houston I-10 West/Energy Corridor, responded to this reviewResponded March 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here 2 nights on my most recent business trip to Houston because all the downtown hotels were full due to the Texas Rodeo. I was plesently surprised of the resonable cost compared to the downtown hotels.  The commute was only 20-30 minutes to downtown.  The property is located very near the toll road and I-610 loop.  Quick access to the westside.  The Bistro was great.  I had their healthy breakfast sandwich that was served quick and hot.  Only 390 calories.  I was very impressed with the staff.  The morning I had breakfast the Bistro fulled up quickly and there was a long line.  The manager on duty quickly came over and expedited the service.  Great Job.  I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r125635985-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125635985</t>
+  </si>
+  <si>
+    <t>RELAXING!</t>
+  </si>
+  <si>
+    <t>I planned a Valentine's Day weekend for my fiance and booked the Junior Suite with whirlpool and it was fabulous! The room was clean and whirlpool (jacuzzi) was awesome. Everything we needed was right to at our fingertips. We will return!MoreShow less</t>
+  </si>
+  <si>
+    <t>I planned a Valentine's Day weekend for my fiance and booked the Junior Suite with whirlpool and it was fabulous! The room was clean and whirlpool (jacuzzi) was awesome. Everything we needed was right to at our fingertips. We will return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r125064228-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125064228</t>
+  </si>
+  <si>
+    <t>02/22/2012</t>
+  </si>
+  <si>
+    <t>Average Stay</t>
+  </si>
+  <si>
+    <t>Stayed 5 nights on business trip to the area.  King Room was clean but a little on the small side.  Bathroom was clean but also small.  Bed was very comfortable with tons of extra pillows.  However, there is no closet space so any hanging garments will go in the armoire.  Unfortunately, thats where you'll also find the iron, ironing board and extra blanket stored.  Basically I had room for one sport coat and a couple of shirts, the rest had to go in the dresser.  Bistro in the lobby was a little pricey but what hotel food isn't?  Food was good though and service was great.  Location is in a safe area and backs up to well lighted office buildings and parking areas.  Felt very safe walking out to my car to retrieve a few items late at night.  If you can get a good price not a bad place to stay for a business trip.  If you are vacationing with the family there are better places.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed 5 nights on business trip to the area.  King Room was clean but a little on the small side.  Bathroom was clean but also small.  Bed was very comfortable with tons of extra pillows.  However, there is no closet space so any hanging garments will go in the armoire.  Unfortunately, thats where you'll also find the iron, ironing board and extra blanket stored.  Basically I had room for one sport coat and a couple of shirts, the rest had to go in the dresser.  Bistro in the lobby was a little pricey but what hotel food isn't?  Food was good though and service was great.  Location is in a safe area and backs up to well lighted office buildings and parking areas.  Felt very safe walking out to my car to retrieve a few items late at night.  If you can get a good price not a bad place to stay for a business trip.  If you are vacationing with the family there are better places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r85139641-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>85139641</t>
+  </si>
+  <si>
+    <t>10/28/2010</t>
+  </si>
+  <si>
+    <t>BEWARE - MAJOR Rennovations!</t>
+  </si>
+  <si>
+    <t>Just a quick review - I booked this hotel on the internet.  Have stayed here 10 plus times in the last five years and this property had ranked as one of my favorite Courtyards.  The lobby area is non-existent.  Construction barricades everywhere.  Difficult to navigate to rooms around the construction.  There was nothing on the internet indicating any of this renovation was occurring.  If you are staying in your room the entire time you are here than this should only be a minor inconvenience.  If you planned to meet clients, have a nice alternate place to hang out, have a drink at the lounge then I would advise to wait until this is completed.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>Just a quick review - I booked this hotel on the internet.  Have stayed here 10 plus times in the last five years and this property had ranked as one of my favorite Courtyards.  The lobby area is non-existent.  Construction barricades everywhere.  Difficult to navigate to rooms around the construction.  There was nothing on the internet indicating any of this renovation was occurring.  If you are staying in your room the entire time you are here than this should only be a minor inconvenience.  If you planned to meet clients, have a nice alternate place to hang out, have a drink at the lounge then I would advise to wait until this is completed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r64826561-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>64826561</t>
+  </si>
+  <si>
+    <t>05/20/2010</t>
+  </si>
+  <si>
+    <t>cushiest bed; friendliest staff</t>
+  </si>
+  <si>
+    <t>i normally stay in galleria.  this particular week everything was booked and i ventured outside to west loop....+cushiest bed and bedding.  spent a week in hotel Icon downtown (#35) and this was a better sleep.  by far. +huge room.  i asked for a king single, got a queen double, massive room, good work table+friendly staff.  had a little issue with a supplied furnishing... staff followed up immediately +housekeeping left a basket of fresh towels and amenities outside my door everytime i DND'ed.  great touch i thought - i like my privacy and noones ever replenished when i DND elsewherei cant find a single complaint.  cant rank 5* cuz its a not a 5* hotel, but for what it was it my stay was flawless.  will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>i normally stay in galleria.  this particular week everything was booked and i ventured outside to west loop....+cushiest bed and bedding.  spent a week in hotel Icon downtown (#35) and this was a better sleep.  by far. +huge room.  i asked for a king single, got a queen double, massive room, good work table+friendly staff.  had a little issue with a supplied furnishing... staff followed up immediately +housekeeping left a basket of fresh towels and amenities outside my door everytime i DND'ed.  great touch i thought - i like my privacy and noones ever replenished when i DND elsewherei cant find a single complaint.  cant rank 5* cuz its a not a 5* hotel, but for what it was it my stay was flawless.  will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r57583817-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>57583817</t>
+  </si>
+  <si>
+    <t>03/02/2010</t>
+  </si>
+  <si>
+    <t>Friendly staff, hotel on I-10 access road, road noise loud in some rooms</t>
+  </si>
+  <si>
+    <t>Although conveniently located on the access road to I-10, the road noise can be a bit loud depending upon the room.  The rooms have been updated (redecorated, new AC/heat) since my last stay.  They are much, much nicer, brighter and more modern.   The staff is friendly and seems genuinely nice.  I've stayed at this specific location a number of times.  I have never had any issues with the wired internet service; performance has been fine.  The hotel is close to a good 5 mi jogging trail - Buffalo Bayou Park Trail.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r32564470-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>32564470</t>
+  </si>
+  <si>
+    <t>06/17/2009</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Hotel staff was fine. Room was fine. Location is good.Broken elevator was inconvenient but that's not the reason for the poor review.The reason for the review is the horrible iBahn service. I will spare you the details but suffice it to say that iBahn could not give me a reliable connection with my roaming partner after 5+ disconnects, two phone calls and two hours of my time.When I called the front desk to update them Lisa gave me some Marriott points as a goodwill gesture so I give them a 3 star rating when I'd normally give a Courtyard where I can't work effectively more than 2 starts.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r19801239-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>19801239</t>
+  </si>
+  <si>
+    <t>09/05/2008</t>
+  </si>
+  <si>
+    <t>I stayed at this property August 14 - 16th as I had business at the ConocoPhillips office on Dairy Ashford so this property is super close.  Check in was quick and the room was great.  There was a king-sized bed, desk with chair, couch and a decent sized t.v.  There were nice toiletries in the bathroom and a coffee maker as well.  I just went to the lobby to get creamer instead of using the powdered stuff.  The room was quiet, temperature in the room was easy to control and although I noticed late the first night my phone wasn't working, I didn't do anything about it till the next morning but they had it fixed immediately.  You do get newspapers at your door during the week and they have a wonderful breakfast/brunch available at a reasonable price.  I never got an opportunity to go into the pool area, but it was clean and open for long hours.  I would definitely recommend this hotel and will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>I stayed at this property August 14 - 16th as I had business at the ConocoPhillips office on Dairy Ashford so this property is super close.  Check in was quick and the room was great.  There was a king-sized bed, desk with chair, couch and a decent sized t.v.  There were nice toiletries in the bathroom and a coffee maker as well.  I just went to the lobby to get creamer instead of using the powdered stuff.  The room was quiet, temperature in the room was easy to control and although I noticed late the first night my phone wasn't working, I didn't do anything about it till the next morning but they had it fixed immediately.  You do get newspapers at your door during the week and they have a wonderful breakfast/brunch available at a reasonable price.  I never got an opportunity to go into the pool area, but it was clean and open for long hours.  I would definitely recommend this hotel and will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r7316299-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>7316299</t>
+  </si>
+  <si>
+    <t>04/09/2007</t>
+  </si>
+  <si>
+    <t>Bad security, noisy A/C, thin towels</t>
+  </si>
+  <si>
+    <t>Given that I paid a room rate of about $115/night, I wasn't expecting a luxury room.  However, the towels are very thin and threadbare (probably from over-use, too many washings without replacement), the A/C in the room is very loud (making sleeping more difficult), and the hallway A/C unit continued to run even when the outside temp took a big dip...making the hallways like an icebox.However, the thing that caused me to write this review (something I don't normally take the time to do) is that on two consecutive nights, I came back to my hotel room to find the door ajar...anyone could have simply pushed the door open at any time and had complete access to my room...and my travel posessions.  I wrote the first time off as a fluke, as there was nothing missing from my room.  The second time was the night before my departure date, at which point I did call the front desk and reported the issue.  I was not able to determine if any actions were taken as a result of my report. I've never had this problem at any hotel, and I'm a frequent traveller (executive platinum on AA).  Beware.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>Given that I paid a room rate of about $115/night, I wasn't expecting a luxury room.  However, the towels are very thin and threadbare (probably from over-use, too many washings without replacement), the A/C in the room is very loud (making sleeping more difficult), and the hallway A/C unit continued to run even when the outside temp took a big dip...making the hallways like an icebox.However, the thing that caused me to write this review (something I don't normally take the time to do) is that on two consecutive nights, I came back to my hotel room to find the door ajar...anyone could have simply pushed the door open at any time and had complete access to my room...and my travel posessions.  I wrote the first time off as a fluke, as there was nothing missing from my room.  The second time was the night before my departure date, at which point I did call the front desk and reported the issue.  I was not able to determine if any actions were taken as a result of my report. I've never had this problem at any hotel, and I'm a frequent traveller (executive platinum on AA).  Beware.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r4451470-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4451470</t>
+  </si>
+  <si>
+    <t>02/09/2006</t>
+  </si>
+  <si>
+    <t>Awesome! Best Courtyard I've been to.</t>
+  </si>
+  <si>
+    <t>I was really amazed at how much nicer this courtyard is than the others I've stayed at, from all the marble and dark woods in the grand lobby to the very professional staff to the rooms that look all bright and spring-themed, like something out of better homes and gardens. And the bed...oh my gosh it had one of those foam memory mattresses...great sleeping experience. This is one of those hotels that on the outside looks like it might be very average, but inside is just awesome. I would stay there again in a heartbeat.</t>
+  </si>
+  <si>
+    <t>April 2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98999-r4065888-Courtyard_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4065888</t>
+  </si>
+  <si>
+    <t>10/26/2005</t>
+  </si>
+  <si>
+    <t>Courtyard I -10West Very Good Hotel</t>
+  </si>
+  <si>
+    <t>I've been at the Courtyard Oct 6-8. Friendly receptionists, good size and clean room, location is I-10 and Dairy Ashford, close to many company offices.Good breakfast buffet, good internet access, good price/performance. I've been there several times and I definitelly recommend it.</t>
+  </si>
+  <si>
+    <t>October 2005</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2473,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2505,5313 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>169</v>
+      </c>
+      <c r="X15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>177</v>
+      </c>
+      <c r="O16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>178</v>
+      </c>
+      <c r="X16" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>187</v>
+      </c>
+      <c r="X17" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>195</v>
+      </c>
+      <c r="O18" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>196</v>
+      </c>
+      <c r="X18" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>200</v>
+      </c>
+      <c r="J19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>204</v>
+      </c>
+      <c r="X19" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>208</v>
+      </c>
+      <c r="J20" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" t="s">
+        <v>210</v>
+      </c>
+      <c r="L20" t="s">
+        <v>211</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O20" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>213</v>
+      </c>
+      <c r="X20" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J21" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" t="s">
+        <v>220</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>221</v>
+      </c>
+      <c r="X21" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>225</v>
+      </c>
+      <c r="J22" t="s">
+        <v>226</v>
+      </c>
+      <c r="K22" t="s">
+        <v>227</v>
+      </c>
+      <c r="L22" t="s">
+        <v>228</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>212</v>
+      </c>
+      <c r="O22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>229</v>
+      </c>
+      <c r="X22" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>233</v>
+      </c>
+      <c r="J23" t="s">
+        <v>234</v>
+      </c>
+      <c r="K23" t="s">
+        <v>235</v>
+      </c>
+      <c r="L23" t="s">
+        <v>236</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>237</v>
+      </c>
+      <c r="O23" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>238</v>
+      </c>
+      <c r="X23" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>242</v>
+      </c>
+      <c r="J24" t="s">
+        <v>243</v>
+      </c>
+      <c r="K24" t="s">
+        <v>244</v>
+      </c>
+      <c r="L24" t="s">
+        <v>245</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>237</v>
+      </c>
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>246</v>
+      </c>
+      <c r="X24" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>250</v>
+      </c>
+      <c r="J25" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" t="s">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s">
+        <v>253</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>246</v>
+      </c>
+      <c r="X25" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" t="s">
+        <v>258</v>
+      </c>
+      <c r="L26" t="s">
+        <v>259</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>260</v>
+      </c>
+      <c r="O26" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>261</v>
+      </c>
+      <c r="X26" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" t="s">
+        <v>266</v>
+      </c>
+      <c r="K27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L27" t="s">
+        <v>268</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>269</v>
+      </c>
+      <c r="O27" t="s">
+        <v>108</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>261</v>
+      </c>
+      <c r="X27" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>271</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" t="s">
+        <v>274</v>
+      </c>
+      <c r="L28" t="s">
+        <v>275</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>269</v>
+      </c>
+      <c r="O28" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" t="s">
+        <v>281</v>
+      </c>
+      <c r="K29" t="s">
+        <v>282</v>
+      </c>
+      <c r="L29" t="s">
+        <v>283</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>284</v>
+      </c>
+      <c r="O29" t="s">
+        <v>108</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>285</v>
+      </c>
+      <c r="X29" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>288</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>289</v>
+      </c>
+      <c r="J30" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" t="s">
+        <v>291</v>
+      </c>
+      <c r="L30" t="s">
+        <v>292</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>293</v>
+      </c>
+      <c r="O30" t="s">
+        <v>108</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>294</v>
+      </c>
+      <c r="X30" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>298</v>
+      </c>
+      <c r="J31" t="s">
+        <v>299</v>
+      </c>
+      <c r="K31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L31" t="s">
+        <v>301</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>293</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>294</v>
+      </c>
+      <c r="X31" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J32" t="s">
+        <v>305</v>
+      </c>
+      <c r="K32" t="s">
+        <v>306</v>
+      </c>
+      <c r="L32" t="s">
+        <v>307</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>308</v>
+      </c>
+      <c r="O32" t="s">
+        <v>108</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>294</v>
+      </c>
+      <c r="X32" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>310</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>311</v>
+      </c>
+      <c r="J33" t="s">
+        <v>312</v>
+      </c>
+      <c r="K33" t="s">
+        <v>313</v>
+      </c>
+      <c r="L33" t="s">
+        <v>314</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>308</v>
+      </c>
+      <c r="O33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>294</v>
+      </c>
+      <c r="X33" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>316</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>317</v>
+      </c>
+      <c r="J34" t="s">
+        <v>318</v>
+      </c>
+      <c r="K34" t="s">
+        <v>319</v>
+      </c>
+      <c r="L34" t="s">
+        <v>320</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>308</v>
+      </c>
+      <c r="O34" t="s">
+        <v>108</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>294</v>
+      </c>
+      <c r="X34" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>322</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>323</v>
+      </c>
+      <c r="J35" t="s">
+        <v>324</v>
+      </c>
+      <c r="K35" t="s">
+        <v>325</v>
+      </c>
+      <c r="L35" t="s">
+        <v>326</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>327</v>
+      </c>
+      <c r="O35" t="s">
+        <v>108</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>328</v>
+      </c>
+      <c r="X35" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>332</v>
+      </c>
+      <c r="J36" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" t="s">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s">
+        <v>335</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>336</v>
+      </c>
+      <c r="O36" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>337</v>
+      </c>
+      <c r="X36" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>340</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>341</v>
+      </c>
+      <c r="J37" t="s">
+        <v>342</v>
+      </c>
+      <c r="K37" t="s">
+        <v>343</v>
+      </c>
+      <c r="L37" t="s">
+        <v>344</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>345</v>
+      </c>
+      <c r="O37" t="s">
+        <v>80</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>348</v>
+      </c>
+      <c r="K38" t="s">
+        <v>349</v>
+      </c>
+      <c r="L38" t="s">
+        <v>350</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>351</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>352</v>
+      </c>
+      <c r="X38" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>360</v>
+      </c>
+      <c r="O39" t="s">
+        <v>80</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>361</v>
+      </c>
+      <c r="X39" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>364</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>365</v>
+      </c>
+      <c r="J40" t="s">
+        <v>366</v>
+      </c>
+      <c r="K40" t="s">
+        <v>367</v>
+      </c>
+      <c r="L40" t="s">
+        <v>368</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>369</v>
+      </c>
+      <c r="O40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>371</v>
+      </c>
+      <c r="J41" t="s">
+        <v>372</v>
+      </c>
+      <c r="K41" t="s">
+        <v>373</v>
+      </c>
+      <c r="L41" t="s">
+        <v>374</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>360</v>
+      </c>
+      <c r="O41" t="s">
+        <v>108</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>375</v>
+      </c>
+      <c r="X41" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>378</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>379</v>
+      </c>
+      <c r="J42" t="s">
+        <v>380</v>
+      </c>
+      <c r="K42" t="s">
+        <v>381</v>
+      </c>
+      <c r="L42" t="s">
+        <v>382</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>383</v>
+      </c>
+      <c r="O42" t="s">
+        <v>108</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>384</v>
+      </c>
+      <c r="X42" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>387</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>388</v>
+      </c>
+      <c r="J43" t="s">
+        <v>389</v>
+      </c>
+      <c r="K43" t="s">
+        <v>390</v>
+      </c>
+      <c r="L43" t="s">
+        <v>391</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>392</v>
+      </c>
+      <c r="O43" t="s">
+        <v>108</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>393</v>
+      </c>
+      <c r="X43" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>397</v>
+      </c>
+      <c r="J44" t="s">
+        <v>398</v>
+      </c>
+      <c r="K44" t="s">
+        <v>399</v>
+      </c>
+      <c r="L44" t="s">
+        <v>400</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>369</v>
+      </c>
+      <c r="O44" t="s">
+        <v>108</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>401</v>
+      </c>
+      <c r="X44" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>404</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>405</v>
+      </c>
+      <c r="J45" t="s">
+        <v>406</v>
+      </c>
+      <c r="K45" t="s">
+        <v>407</v>
+      </c>
+      <c r="L45" t="s">
+        <v>408</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>369</v>
+      </c>
+      <c r="O45" t="s">
+        <v>409</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>410</v>
+      </c>
+      <c r="X45" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>413</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>414</v>
+      </c>
+      <c r="J46" t="s">
+        <v>415</v>
+      </c>
+      <c r="K46" t="s">
+        <v>416</v>
+      </c>
+      <c r="L46" t="s">
+        <v>417</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>336</v>
+      </c>
+      <c r="O46" t="s">
+        <v>108</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>418</v>
+      </c>
+      <c r="X46" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>421</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>422</v>
+      </c>
+      <c r="J47" t="s">
+        <v>423</v>
+      </c>
+      <c r="K47" t="s">
+        <v>424</v>
+      </c>
+      <c r="L47" t="s">
+        <v>425</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>426</v>
+      </c>
+      <c r="O47" t="s">
+        <v>108</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>427</v>
+      </c>
+      <c r="X47" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>430</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>431</v>
+      </c>
+      <c r="J48" t="s">
+        <v>432</v>
+      </c>
+      <c r="K48" t="s">
+        <v>433</v>
+      </c>
+      <c r="L48" t="s">
+        <v>434</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>435</v>
+      </c>
+      <c r="O48" t="s">
+        <v>80</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>436</v>
+      </c>
+      <c r="X48" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>439</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>440</v>
+      </c>
+      <c r="J49" t="s">
+        <v>441</v>
+      </c>
+      <c r="K49" t="s">
+        <v>442</v>
+      </c>
+      <c r="L49" t="s">
+        <v>443</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>444</v>
+      </c>
+      <c r="O49" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>445</v>
+      </c>
+      <c r="X49" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>448</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>449</v>
+      </c>
+      <c r="J50" t="s">
+        <v>450</v>
+      </c>
+      <c r="K50" t="s">
+        <v>451</v>
+      </c>
+      <c r="L50" t="s">
+        <v>452</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>453</v>
+      </c>
+      <c r="O50" t="s">
+        <v>80</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>454</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>455</v>
+      </c>
+      <c r="J51" t="s">
+        <v>456</v>
+      </c>
+      <c r="K51" t="s">
+        <v>457</v>
+      </c>
+      <c r="L51" t="s">
+        <v>458</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>459</v>
+      </c>
+      <c r="O51" t="s">
+        <v>108</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>460</v>
+      </c>
+      <c r="X51" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>463</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>464</v>
+      </c>
+      <c r="J52" t="s">
+        <v>465</v>
+      </c>
+      <c r="K52" t="s">
+        <v>466</v>
+      </c>
+      <c r="L52" t="s">
+        <v>467</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>468</v>
+      </c>
+      <c r="O52" t="s">
+        <v>80</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>470</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>471</v>
+      </c>
+      <c r="J53" t="s">
+        <v>472</v>
+      </c>
+      <c r="K53" t="s">
+        <v>473</v>
+      </c>
+      <c r="L53" t="s">
+        <v>474</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>475</v>
+      </c>
+      <c r="O53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>476</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>477</v>
+      </c>
+      <c r="J54" t="s">
+        <v>478</v>
+      </c>
+      <c r="K54" t="s">
+        <v>479</v>
+      </c>
+      <c r="L54" t="s">
+        <v>480</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>481</v>
+      </c>
+      <c r="O54" t="s">
+        <v>80</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>482</v>
+      </c>
+      <c r="X54" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>485</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>486</v>
+      </c>
+      <c r="J55" t="s">
+        <v>487</v>
+      </c>
+      <c r="K55" t="s">
+        <v>488</v>
+      </c>
+      <c r="L55" t="s">
+        <v>489</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>490</v>
+      </c>
+      <c r="O55" t="s">
+        <v>108</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>491</v>
+      </c>
+      <c r="X55" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>494</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>495</v>
+      </c>
+      <c r="J56" t="s">
+        <v>496</v>
+      </c>
+      <c r="K56" t="s">
+        <v>497</v>
+      </c>
+      <c r="L56" t="s">
+        <v>498</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>499</v>
+      </c>
+      <c r="X56" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>502</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>503</v>
+      </c>
+      <c r="J57" t="s">
+        <v>504</v>
+      </c>
+      <c r="K57" t="s">
+        <v>505</v>
+      </c>
+      <c r="L57" t="s">
+        <v>506</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>507</v>
+      </c>
+      <c r="O57" t="s">
+        <v>108</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>508</v>
+      </c>
+      <c r="X57" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>511</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>512</v>
+      </c>
+      <c r="J58" t="s">
+        <v>513</v>
+      </c>
+      <c r="K58" t="s">
+        <v>514</v>
+      </c>
+      <c r="L58" t="s">
+        <v>515</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>516</v>
+      </c>
+      <c r="O58" t="s">
+        <v>108</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>517</v>
+      </c>
+      <c r="X58" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>520</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>521</v>
+      </c>
+      <c r="J59" t="s">
+        <v>522</v>
+      </c>
+      <c r="K59" t="s">
+        <v>523</v>
+      </c>
+      <c r="L59" t="s">
+        <v>524</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>525</v>
+      </c>
+      <c r="O59" t="s">
+        <v>108</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>526</v>
+      </c>
+      <c r="X59" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>529</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>530</v>
+      </c>
+      <c r="J60" t="s">
+        <v>531</v>
+      </c>
+      <c r="K60" t="s">
+        <v>532</v>
+      </c>
+      <c r="L60" t="s">
+        <v>533</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>534</v>
+      </c>
+      <c r="O60" t="s">
+        <v>108</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>526</v>
+      </c>
+      <c r="X60" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>536</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>537</v>
+      </c>
+      <c r="J61" t="s">
+        <v>538</v>
+      </c>
+      <c r="K61" t="s">
+        <v>539</v>
+      </c>
+      <c r="L61" t="s">
+        <v>540</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>541</v>
+      </c>
+      <c r="O61" t="s">
+        <v>108</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>542</v>
+      </c>
+      <c r="X61" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>545</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>546</v>
+      </c>
+      <c r="J62" t="s">
+        <v>547</v>
+      </c>
+      <c r="K62" t="s">
+        <v>548</v>
+      </c>
+      <c r="L62" t="s">
+        <v>549</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>534</v>
+      </c>
+      <c r="O62" t="s">
+        <v>108</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>550</v>
+      </c>
+      <c r="X62" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>553</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>554</v>
+      </c>
+      <c r="J63" t="s">
+        <v>555</v>
+      </c>
+      <c r="K63" t="s">
+        <v>556</v>
+      </c>
+      <c r="L63" t="s">
+        <v>557</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>534</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>550</v>
+      </c>
+      <c r="X63" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>559</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>560</v>
+      </c>
+      <c r="J64" t="s">
+        <v>561</v>
+      </c>
+      <c r="K64" t="s">
+        <v>562</v>
+      </c>
+      <c r="L64" t="s">
+        <v>563</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>534</v>
+      </c>
+      <c r="O64" t="s">
+        <v>108</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>564</v>
+      </c>
+      <c r="X64" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>567</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>568</v>
+      </c>
+      <c r="J65" t="s">
+        <v>569</v>
+      </c>
+      <c r="K65" t="s">
+        <v>570</v>
+      </c>
+      <c r="L65" t="s">
+        <v>571</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>572</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>573</v>
+      </c>
+      <c r="X65" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>576</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>577</v>
+      </c>
+      <c r="J66" t="s">
+        <v>578</v>
+      </c>
+      <c r="K66" t="s">
+        <v>579</v>
+      </c>
+      <c r="L66" t="s">
+        <v>580</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>572</v>
+      </c>
+      <c r="O66" t="s">
+        <v>108</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>573</v>
+      </c>
+      <c r="X66" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>582</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>583</v>
+      </c>
+      <c r="J67" t="s">
+        <v>584</v>
+      </c>
+      <c r="K67" t="s">
+        <v>585</v>
+      </c>
+      <c r="L67" t="s">
+        <v>586</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>573</v>
+      </c>
+      <c r="X67" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>588</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>589</v>
+      </c>
+      <c r="J68" t="s">
+        <v>590</v>
+      </c>
+      <c r="K68" t="s">
+        <v>591</v>
+      </c>
+      <c r="L68" t="s">
+        <v>592</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>593</v>
+      </c>
+      <c r="O68" t="s">
+        <v>108</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>594</v>
+      </c>
+      <c r="X68" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>597</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>598</v>
+      </c>
+      <c r="J69" t="s">
+        <v>599</v>
+      </c>
+      <c r="K69" t="s">
+        <v>600</v>
+      </c>
+      <c r="L69" t="s">
+        <v>601</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>602</v>
+      </c>
+      <c r="O69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>603</v>
+      </c>
+      <c r="X69" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>606</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>607</v>
+      </c>
+      <c r="J70" t="s">
+        <v>608</v>
+      </c>
+      <c r="K70" t="s">
+        <v>609</v>
+      </c>
+      <c r="L70" t="s">
+        <v>610</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>611</v>
+      </c>
+      <c r="O70" t="s">
+        <v>80</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>612</v>
+      </c>
+      <c r="X70" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>615</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>616</v>
+      </c>
+      <c r="J71" t="s">
+        <v>617</v>
+      </c>
+      <c r="K71" t="s">
+        <v>618</v>
+      </c>
+      <c r="L71" t="s">
+        <v>619</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>620</v>
+      </c>
+      <c r="O71" t="s">
+        <v>108</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>621</v>
+      </c>
+      <c r="X71" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>624</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>625</v>
+      </c>
+      <c r="J72" t="s">
+        <v>617</v>
+      </c>
+      <c r="K72" t="s">
+        <v>626</v>
+      </c>
+      <c r="L72" t="s">
+        <v>627</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>621</v>
+      </c>
+      <c r="X72" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>629</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>630</v>
+      </c>
+      <c r="J73" t="s">
+        <v>631</v>
+      </c>
+      <c r="K73" t="s">
+        <v>632</v>
+      </c>
+      <c r="L73" t="s">
+        <v>633</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>620</v>
+      </c>
+      <c r="O73" t="s">
+        <v>108</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>621</v>
+      </c>
+      <c r="X73" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>635</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>636</v>
+      </c>
+      <c r="J74" t="s">
+        <v>637</v>
+      </c>
+      <c r="K74" t="s">
+        <v>638</v>
+      </c>
+      <c r="L74" t="s">
+        <v>639</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>640</v>
+      </c>
+      <c r="O74" t="s">
+        <v>108</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>621</v>
+      </c>
+      <c r="X74" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>642</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>643</v>
+      </c>
+      <c r="J75" t="s">
+        <v>644</v>
+      </c>
+      <c r="K75" t="s">
+        <v>645</v>
+      </c>
+      <c r="L75" t="s">
+        <v>646</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>647</v>
+      </c>
+      <c r="O75" t="s">
+        <v>108</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>649</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>650</v>
+      </c>
+      <c r="J76" t="s">
+        <v>651</v>
+      </c>
+      <c r="K76" t="s">
+        <v>652</v>
+      </c>
+      <c r="L76" t="s">
+        <v>653</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>654</v>
+      </c>
+      <c r="O76" t="s">
+        <v>108</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>655</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>656</v>
+      </c>
+      <c r="J77" t="s">
+        <v>657</v>
+      </c>
+      <c r="K77" t="s">
+        <v>658</v>
+      </c>
+      <c r="L77" t="s">
+        <v>659</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>660</v>
+      </c>
+      <c r="O77" t="s">
+        <v>108</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>661</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>662</v>
+      </c>
+      <c r="J78" t="s">
+        <v>663</v>
+      </c>
+      <c r="K78" t="s">
+        <v>451</v>
+      </c>
+      <c r="L78" t="s">
+        <v>664</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>665</v>
+      </c>
+      <c r="O78" t="s">
+        <v>108</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>667</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>668</v>
+      </c>
+      <c r="J79" t="s">
+        <v>669</v>
+      </c>
+      <c r="K79" t="s">
+        <v>670</v>
+      </c>
+      <c r="L79" t="s">
+        <v>671</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>672</v>
+      </c>
+      <c r="O79" t="s">
+        <v>108</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>674</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>675</v>
+      </c>
+      <c r="J80" t="s">
+        <v>676</v>
+      </c>
+      <c r="K80" t="s">
+        <v>677</v>
+      </c>
+      <c r="L80" t="s">
+        <v>678</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>679</v>
+      </c>
+      <c r="O80" t="s">
+        <v>108</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>680</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>681</v>
+      </c>
+      <c r="J81" t="s">
+        <v>682</v>
+      </c>
+      <c r="K81" t="s">
+        <v>683</v>
+      </c>
+      <c r="L81" t="s">
+        <v>684</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>685</v>
+      </c>
+      <c r="O81" t="s">
+        <v>108</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>
